--- a/真的taptap demo/Assets/Resources/database.xlsx
+++ b/真的taptap demo/Assets/Resources/database.xlsx
@@ -45,7 +45,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -53,6 +52,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -90,6 +90,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9F3FD"/>
         <bgColor/>
       </patternFill>
@@ -97,6 +109,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9F3FD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -120,49 +168,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
+        <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -186,31 +210,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFFBBFBC"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFFBBFBC"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFFBBFBC"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -246,7 +270,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -264,25 +318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
+        <fgColor rgb="FFF76964"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFF76964"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -294,19 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF76964"/>
+        <fgColor rgb="FFFBBFBC"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -319,36 +349,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAD82F7"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF76964"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -720,154 +720,154 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="8" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="9" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="10" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="11" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="12" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="10" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="11" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="12" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="13" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="14" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="13" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="15" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="17" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="19" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="20" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="14" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="21" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="22" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="23" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="24" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="25" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="26" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="15" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="27" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="28" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="17" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="19" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="29" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="20" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="30" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="21" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="22" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="23" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="24" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="25" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="26" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="27" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="28" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="29" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="30" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="31" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="33" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="33" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="34" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="35" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="35" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="36" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="37" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="37" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="39" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="40" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="41" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="39" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="40" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="41" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="42" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="42" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="43" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="49" fillId="44" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="49" fillId="44" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,25 +1198,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="str">
+      <c r="A1" s="12" t="str">
         <v>DialogueId</v>
       </c>
-      <c r="B1" s="18" t="str">
+      <c r="B1" s="26" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="18" t="str">
+      <c r="C1" s="26" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="str">
+      <c r="A2" s="27" t="str">
         <v>编号，触发时候调用</v>
       </c>
-      <c r="B2" s="15" t="str">
+      <c r="B2" s="28" t="str">
         <v>整段对话。一行speaker，一行text。speaker不要冒号，speaker相当于一个ID来控制显示哪张立绘特殊speaker
 Null ：（表示没有立绘）Narrator:（表示全屏显示旁白）Options（表示触发选项，后面跟选项编号，用 “|”分隔）</v>
       </c>
-      <c r="C2" s="15" t="str">
+      <c r="C2" s="28" t="str">
         <v>备注。可以写触发地点，代码不读取，只是为了方便排查
 编号排查：
 1xx-开场剧情及冥府主殿相关
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row customHeight="true" ht="425" r="3">
-      <c r="A3" s="20">
+      <c r="A3" s="23">
         <v>100</v>
       </c>
-      <c r="B3" s="19" t="str">
+      <c r="B3" s="24" t="str">
         <v>Narrator
 沉湎……
 Narrator
@@ -1262,16 +1262,16 @@
 Null 
 眼前的苍蝇怪物和这座城堡都令你分外熟悉。这分明是你独立开发的个人游戏中设计出的场景和角色。你掉进了自己制作的游戏里！</v>
       </c>
-      <c r="C3" s="19" t="str">
+      <c r="C3" s="24" t="str">
         <v>开场剧情
 Null 处配的是哥特宫殿那张图</v>
       </c>
     </row>
     <row customHeight="true" ht="350" r="4">
-      <c r="A4" s="20">
+      <c r="A4" s="23">
         <v>110</v>
       </c>
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="24" t="str">
         <v>别西卜
 你好，戴着白色厨师帽的女孩。我想你就是来应聘地狱主厨的候选人了。
 主角7
@@ -1297,15 +1297,15 @@
 Options 
 11|12|10</v>
       </c>
-      <c r="C4" s="19" t="str">
+      <c r="C4" s="24" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="120" r="5">
-      <c r="A5" s="20">
+      <c r="A5" s="23">
         <v>111</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="24" t="str">
         <v>别西卜
 万魔殿的每个地点都在等待着你的探索。
 别西卜
@@ -1315,15 +1315,15 @@
 Options
 11|12|10</v>
       </c>
-      <c r="C5" s="19" t="str">
+      <c r="C5" s="24" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="163" r="6">
-      <c r="A6" s="20">
+      <c r="A6" s="23">
         <v>112</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="24" t="str">
         <v>别西卜
 每道菜有一份标准主食和一份标准辅食。
 别西卜
@@ -1335,15 +1335,15 @@
 Options
 11|12|10</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="24" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="7">
-      <c r="A7" s="20">
+      <c r="A7" s="23">
         <v>113</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="24" t="str">
         <v>别西卜
 第一道菜是无花果香煎龙肝。
 主角6
@@ -1351,15 +1351,15 @@
 主角7
 早知道将新手教程做得更清晰一些了……！</v>
       </c>
-      <c r="C7" s="19" t="str">
+      <c r="C7" s="24" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="8">
-      <c r="A8" s="20">
+      <c r="A8" s="23">
         <v>102</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="24" t="str">
         <v>别西卜
 第二道菜是藏红花蟾蜍浓汤。
 主角6
@@ -1367,17 +1367,17 @@
 主角7
 蟾蜍在花园里找找？藏红花什么的，还是在原野上比较多吧。</v>
       </c>
-      <c r="C8" s="19" t="str">
+      <c r="C8" s="24" t="str">
         <v>第一道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="3"/>
     </row>
     <row customHeight="true" ht="106" r="9">
-      <c r="A9" s="20">
+      <c r="A9" s="23">
         <v>103</v>
       </c>
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="24" t="str">
         <v>别西卜
 第三道菜是香槟鱼子酱酿鱼。
 主角6
@@ -1385,16 +1385,16 @@
 主角7
 香槟酒什么的或许能在宫殿找到。</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="24" t="str">
         <v>第二道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="10">
-      <c r="A10" s="20">
+      <c r="A10" s="23">
         <v>104</v>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="24" t="str">
         <v>别西卜
 第四道菜是炭烤摩洛克牛排。
 主角6
@@ -1402,16 +1402,16 @@
 主角7
 烤牛排的配菜在花园里应该是常见的。</v>
       </c>
-      <c r="C10" s="19" t="str">
+      <c r="C10" s="24" t="str">
         <v>第三道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="11">
-      <c r="A11" s="20">
+      <c r="A11" s="23">
         <v>105</v>
       </c>
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="24" t="str">
         <v>别西卜
 第五道菜是烤贝尔芬格奶酪。
 主角6
@@ -1419,16 +1419,16 @@
 主角7
 奶酪的话，或许会和蜂蜜一类的菜品更搭。</v>
       </c>
-      <c r="C11" s="19" t="str">
+      <c r="C11" s="24" t="str">
         <v>第四道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="12">
-      <c r="A12" s="20">
+      <c r="A12" s="23">
         <v>106</v>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="24" t="str">
         <v>别西卜
 第六道菜是撒旦石榴布丁。
 主角6
@@ -1436,34 +1436,33 @@
 主角7
 唔，石榴似乎是在塔尔塔洛斯。</v>
       </c>
-      <c r="C12" s="19" t="str">
+      <c r="C12" s="24" t="str">
         <v>第五道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="13">
-      <c r="A13" s="20">
+      <c r="A13" s="23">
         <v>107</v>
       </c>
-      <c r="B13" s="19" t="str">
+      <c r="B13" s="24" t="str">
         <v>别西卜
 第七道菜是玛门的眼泪。
 主角6
 这是我最喜欢的恶魔角色之一。
 主角7
-这道菜应该是酒，或许寻找一些香料能够调配出美妙的味道。
-</v>
-      </c>
-      <c r="C13" s="19" t="str">
+这道菜应该是酒，或许寻找一些香料能够调配出美妙的味道。</v>
+      </c>
+      <c r="C13" s="24" t="str">
         <v>第六道菜评分通过后显示
 对话结束后跳转对话920</v>
       </c>
     </row>
     <row customHeight="true" ht="212" r="14">
-      <c r="A14" s="25">
+      <c r="A14" s="15">
         <v>210</v>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="14" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。
 Null
@@ -1479,7 +1478,7 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="14" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：2；3；4；5；6；7
@@ -1487,10 +1486,10 @@
       </c>
     </row>
     <row customHeight="true" ht="214" r="15">
-      <c r="A15" s="25">
+      <c r="A15" s="15">
         <v>220</v>
       </c>
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="14" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。
 Null
@@ -1506,17 +1505,17 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="14" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：1</v>
       </c>
     </row>
     <row customHeight="true" ht="211" r="16">
-      <c r="A16" s="25">
+      <c r="A16" s="15">
         <v>230</v>
       </c>
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="14" t="str">
         <v>Null
 到处都是火焰、火焰、火焰。
 Null
@@ -1532,7 +1531,7 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="14" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：3
@@ -1540,10 +1539,10 @@
       </c>
     </row>
     <row customHeight="true" ht="175" r="17">
-      <c r="A17" s="25">
+      <c r="A17" s="15">
         <v>211</v>
       </c>
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="14" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1557,15 +1556,15 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="14" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="134" r="18">
-      <c r="A18" s="25">
+      <c r="A18" s="15">
         <v>212</v>
       </c>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="14" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1575,15 +1574,15 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C18" s="26" t="str">
+      <c r="C18" s="14" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="177" r="19">
-      <c r="A19" s="25">
+      <c r="A19" s="15">
         <v>221</v>
       </c>
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="14" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1597,15 +1596,15 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C19" s="26" t="str">
+      <c r="C19" s="14" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="137" r="20">
-      <c r="A20" s="25">
+      <c r="A20" s="15">
         <v>222</v>
       </c>
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="14" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1615,15 +1614,15 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C20" s="26" t="str">
+      <c r="C20" s="14" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="21">
-      <c r="A21" s="25">
+      <c r="A21" s="15">
         <v>223</v>
       </c>
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="14" t="str">
         <v>大饼
 想要获得刻尔柏的龙肝，你需要特殊的工具。
 大饼
@@ -1631,15 +1630,15 @@
 大饼
 另外，在每个地点多多探索，也许会发现可能用到的东西。</v>
       </c>
-      <c r="C21" s="26" t="str">
+      <c r="C21" s="14" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="186" r="22">
-      <c r="A22" s="25">
+      <c r="A22" s="15">
         <v>231</v>
       </c>
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="14" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1653,15 +1652,15 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C22" s="26" t="str">
+      <c r="C22" s="14" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="133" r="23">
-      <c r="A23" s="25">
+      <c r="A23" s="15">
         <v>232</v>
       </c>
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="14" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1671,28 +1670,28 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C23" s="26" t="str">
+      <c r="C23" s="14" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="71" r="24">
-      <c r="A24" s="25">
+      <c r="A24" s="15">
         <v>234</v>
       </c>
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="14" t="str">
         <v>大饼
 我的混沌三叉戟可以帮上你的忙。</v>
       </c>
-      <c r="C24" s="26" t="str">
+      <c r="C24" s="14" t="str">
         <v>塔尔塔洛斯
 玩家道具栏中会出现混沌三叉戟道具</v>
       </c>
     </row>
     <row customHeight="true" ht="246" r="25">
-      <c r="A25" s="25">
+      <c r="A25" s="15">
         <v>2991</v>
       </c>
-      <c r="B25" s="26" t="str">
+      <c r="B25" s="14" t="str">
         <v>阿斯摩太
 我闻到了浓郁的人肉香气……如此新鲜、柔嫩、美味。
 阿斯摩太
@@ -1708,31 +1707,31 @@
 阿斯摩太
 我被困于炼狱中已经太久，自然无法违抗别西卜大人的命令。但是如何得到你所需要的食材，并不取决于我，而取决于你作为厨师的手法。</v>
       </c>
-      <c r="C25" s="26" t="str">
+      <c r="C25" s="14" t="str">
         <v>塔尔塔洛斯
 出现条件：
 对应轮次：1</v>
       </c>
     </row>
     <row customHeight="true" ht="71" r="26">
-      <c r="A26" s="25">
+      <c r="A26" s="15">
         <v>2992</v>
       </c>
-      <c r="B26" s="26" t="str">
+      <c r="B26" s="14" t="str">
         <v>阿斯摩太
 ......</v>
       </c>
-      <c r="C26" s="26" t="str">
+      <c r="C26" s="14" t="str">
         <v>塔尔塔洛斯
 出现条件：
 对应轮次：2；3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="187" r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>310</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="7" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1746,7 +1745,7 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" s="7" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：1；2；3；5；6；7
@@ -1754,10 +1753,10 @@
       </c>
     </row>
     <row customHeight="true" ht="198" r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>320</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="7" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1771,7 +1770,7 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" s="7" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：4
@@ -1779,10 +1778,10 @@
       </c>
     </row>
     <row customHeight="true" ht="195" r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>330</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="7" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1796,7 +1795,7 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="7" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：1
@@ -1804,10 +1803,10 @@
       </c>
     </row>
     <row customHeight="true" ht="207" r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>311</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="7" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1821,15 +1820,15 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="99" r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>312</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="7" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1837,15 +1836,15 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="217" r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>321</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="7" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1859,15 +1858,15 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="90" r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="6">
         <v>322</v>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B33" s="7" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1875,15 +1874,15 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="114" r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>323</v>
       </c>
-      <c r="B34" s="2" t="str">
+      <c r="B34" s="7" t="str">
         <v>三叶虫
 摩洛克虽然被禁锢在方寸之地，但力量依然不可小觑。
 三叶虫
@@ -1891,15 +1890,15 @@
 三叶虫
 去遗忘之地寻找一个名叫蓝七的混沌亡灵，她将帮助你使摩洛克陷入沉睡。</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="200" r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>331</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" s="7" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1913,15 +1912,15 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="91" r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>332</v>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B36" s="7" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1929,28 +1928,28 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="52" r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>334</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B37" s="7" t="str">
         <v>三叶虫
 这是我的地狱弯刀，几乎可以砍下世界上所有生物的脖颈。</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="7" t="str">
         <v>极乐之野
 玩家道具栏里会获取道具地狱弯刀</v>
       </c>
     </row>
     <row customHeight="true" ht="197" r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="6">
         <v>3991</v>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B38" s="7" t="str">
         <v>Null 
 摩洛克被关在一处画满蓝色符文的阵法里，无形的光芒笼罩着他。他的牛头发出低沉的吼叫，胸口的熔炉燃烧着腾腾火焰。
 主角1
@@ -1964,29 +1963,29 @@
 Null
 他重新吼叫起来，完全忽视了站在外面的人类。</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="7" t="str">
         <v>极乐之野
 出现轮次：1；2；3；4</v>
       </c>
     </row>
     <row customHeight="true" ht="56" r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="6">
         <v>3992</v>
       </c>
-      <c r="B39" s="2" t="str">
+      <c r="B39" s="7" t="str">
         <v>摩洛克
 ......</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="7" t="str">
         <v>极乐之野
 出现轮次：5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="316" r="40">
-      <c r="A40" s="34">
+      <c r="A40" s="2">
         <v>410</v>
       </c>
-      <c r="B40" s="35" t="str">
+      <c r="B40" s="1" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。
 Null
@@ -2008,17 +2007,17 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C40" s="35" t="str">
+      <c r="C40" s="1" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：1；2；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="326" r="41">
-      <c r="A41" s="34">
+      <c r="A41" s="2">
         <v>420</v>
       </c>
-      <c r="B41" s="35" t="str">
+      <c r="B41" s="1" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。
 Null
@@ -2040,17 +2039,17 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C41" s="35" t="str">
+      <c r="C41" s="1" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：3</v>
       </c>
     </row>
     <row customHeight="true" ht="176" r="42">
-      <c r="A42" s="34">
+      <c r="A42" s="2">
         <v>411</v>
       </c>
-      <c r="B42" s="35" t="str">
+      <c r="B42" s="1" t="str">
         <v>因诺
 利维坦是原始混沌的化身，是海洋的统治者。
 因诺
@@ -2064,15 +2063,15 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C42" s="35" t="str">
+      <c r="C42" s="1" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="93" r="43">
-      <c r="A43" s="34">
+      <c r="A43" s="2">
         <v>412</v>
       </c>
-      <c r="B43" s="35" t="str">
+      <c r="B43" s="1" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -2081,15 +2080,15 @@
 411|412|999
 </v>
       </c>
-      <c r="C43" s="35" t="str">
+      <c r="C43" s="1" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="171" r="44">
-      <c r="A44" s="34">
+      <c r="A44" s="2">
         <v>421</v>
       </c>
-      <c r="B44" s="35" t="str">
+      <c r="B44" s="1" t="str">
         <v>因诺
 利维坦是原始混沌的化身，是海洋的统治者。
 因诺
@@ -2103,15 +2102,15 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C44" s="35" t="str">
+      <c r="C44" s="1" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="94" r="45">
-      <c r="A45" s="34">
+      <c r="A45" s="2">
         <v>422</v>
       </c>
-      <c r="B45" s="35" t="str">
+      <c r="B45" s="1" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -2119,30 +2118,30 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C45" s="35" t="str">
+      <c r="C45" s="1" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="87" r="46">
-      <c r="A46" s="34">
+      <c r="A46" s="2">
         <v>423</v>
       </c>
-      <c r="B46" s="35" t="str">
+      <c r="B46" s="1" t="str">
         <v>因诺
 与利维坦的简单性格相对照的，是他坚硬无比的皮肤。
 因诺
 别西卜大人需要的食材必须特殊的工具才能获得，你需要去塔尔塔洛斯寻找那位地狱守卫，取得她的帮助。
 </v>
       </c>
-      <c r="C46" s="35" t="str">
+      <c r="C46" s="1" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="295" r="47">
-      <c r="A47" s="34">
+      <c r="A47" s="2">
         <v>4991</v>
       </c>
-      <c r="B47" s="35" t="str">
+      <c r="B47" s="1" t="str">
         <v>Null 
 一只巨大的鲸鱼出现在你面前。它的表面没有眼睛，身体上覆盖着厚厚的青苔。它不安的背鳍轻轻晃动着，黏稠厚重的河水慢慢浮现波纹。
 利维坦
@@ -2164,31 +2163,31 @@
 主角12
 虽然利维坦的个性温和，但毕竟是恶魔，他并没有比别人犯的罪恶更少。</v>
       </c>
-      <c r="C47" s="35" t="str">
+      <c r="C47" s="1" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：1；2；3</v>
       </c>
     </row>
     <row customHeight="true" ht="85" r="48">
-      <c r="A48" s="34">
+      <c r="A48" s="2">
         <v>4992</v>
       </c>
-      <c r="B48" s="35" t="str">
+      <c r="B48" s="1" t="str">
         <v>利维坦
 ......</v>
       </c>
-      <c r="C48" s="35" t="str">
+      <c r="C48" s="1" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="349" r="49">
-      <c r="A49" s="27">
+      <c r="A49" s="32">
         <v>510</v>
       </c>
-      <c r="B49" s="28" t="str">
+      <c r="B49" s="33" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2214,17 +2213,17 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C49" s="29" t="str">
+      <c r="C49" s="35" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：1；3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="369" r="50">
-      <c r="A50" s="27">
+      <c r="A50" s="32">
         <v>520</v>
       </c>
-      <c r="B50" s="28" t="str">
+      <c r="B50" s="33" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2250,17 +2249,17 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C50" s="29" t="str">
+      <c r="C50" s="35" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：2</v>
       </c>
     </row>
     <row customHeight="true" ht="365" r="51">
-      <c r="A51" s="27">
+      <c r="A51" s="32">
         <v>530</v>
       </c>
-      <c r="B51" s="28" t="str">
+      <c r="B51" s="33" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2286,7 +2285,7 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C51" s="29" t="str">
+      <c r="C51" s="35" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：7
@@ -2294,10 +2293,10 @@
       </c>
     </row>
     <row customHeight="true" ht="194" r="52">
-      <c r="A52" s="27">
+      <c r="A52" s="32">
         <v>511</v>
       </c>
-      <c r="B52" s="28" t="str">
+      <c r="B52" s="33" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2311,15 +2310,15 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C52" s="30" t="str">
+      <c r="C52" s="34" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="53">
-      <c r="A53" s="27">
+      <c r="A53" s="32">
         <v>512</v>
       </c>
-      <c r="B53" s="28" t="str">
+      <c r="B53" s="33" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2327,15 +2326,15 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C53" s="30" t="str">
+      <c r="C53" s="34" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="195" r="54">
-      <c r="A54" s="27">
+      <c r="A54" s="32">
         <v>521</v>
       </c>
-      <c r="B54" s="28" t="str">
+      <c r="B54" s="33" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2349,15 +2348,15 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C54" s="30" t="str">
+      <c r="C54" s="34" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="107" r="55">
-      <c r="A55" s="27">
+      <c r="A55" s="32">
         <v>522</v>
       </c>
-      <c r="B55" s="28" t="str">
+      <c r="B55" s="33" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2365,28 +2364,28 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C55" s="30" t="str">
+      <c r="C55" s="34" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="27">
+      <c r="A56" s="32">
         <v>523</v>
       </c>
-      <c r="B56" s="28" t="str">
+      <c r="B56" s="33" t="str">
         <v>摸摸
 在巴力处获取的食材需要特殊的容器才能储存，你可以在喀戎河畔找到你所需要的物品。</v>
       </c>
-      <c r="C56" s="31" t="str">
+      <c r="C56" s="36" t="str">
         <v>水仙花园
 然后可以在河流出点击拾取地上的物品</v>
       </c>
     </row>
     <row customHeight="true" ht="198" r="57">
-      <c r="A57" s="27">
+      <c r="A57" s="32">
         <v>531</v>
       </c>
-      <c r="B57" s="28" t="str">
+      <c r="B57" s="33" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2400,15 +2399,15 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C57" s="30" t="str">
+      <c r="C57" s="34" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="101" r="58">
-      <c r="A58" s="27">
+      <c r="A58" s="32">
         <v>532</v>
       </c>
-      <c r="B58" s="28" t="str">
+      <c r="B58" s="33" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2416,28 +2415,28 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C58" s="30" t="str">
+      <c r="C58" s="34" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="27">
+      <c r="A59" s="32">
         <v>534</v>
       </c>
-      <c r="B59" s="28" t="str">
+      <c r="B59" s="33" t="str">
         <v>摸摸
 噢……你指的是这把金十字镐。用这个对付玛门再合适不过。</v>
       </c>
-      <c r="C59" s="30" t="str">
+      <c r="C59" s="34" t="str">
         <v>水仙花园
 玩家物品栏增加金十字镐</v>
       </c>
     </row>
     <row customHeight="true" ht="316" r="60">
-      <c r="A60" s="27">
+      <c r="A60" s="32">
         <v>5991</v>
       </c>
-      <c r="B60" s="28" t="str">
+      <c r="B60" s="33" t="str">
         <v>巴力
 你好，戴着白色厨师帽的女孩。
 主角2
@@ -2459,31 +2458,31 @@
 巴力
 至于他所想取的食材……这些伤口对地狱的恶魔不算什么。动手吧，戴厨师帽的女孩。</v>
       </c>
-      <c r="C60" s="30" t="str">
+      <c r="C60" s="34" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：1；2</v>
       </c>
     </row>
     <row customHeight="true" ht="76" r="61">
-      <c r="A61" s="27">
+      <c r="A61" s="32">
         <v>5992</v>
       </c>
-      <c r="B61" s="28" t="str">
+      <c r="B61" s="33" t="str">
         <v>巴力
 ......</v>
       </c>
-      <c r="C61" s="29" t="str">
+      <c r="C61" s="35" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="306" r="62">
-      <c r="A62" s="12">
+      <c r="A62" s="30">
         <v>610</v>
       </c>
-      <c r="B62" s="13" t="str">
+      <c r="B62" s="31" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。
 Null
@@ -2505,17 +2504,17 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C62" s="14" t="str">
+      <c r="C62" s="29" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：1；2；3；4；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="306" r="63">
-      <c r="A63" s="12">
+      <c r="A63" s="30">
         <v>620</v>
       </c>
-      <c r="B63" s="13" t="str">
+      <c r="B63" s="31" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。
 Null
@@ -2537,17 +2536,17 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C63" s="14" t="str">
+      <c r="C63" s="29" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：5</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="12">
+      <c r="A64" s="30">
         <v>611</v>
       </c>
-      <c r="B64" s="13" t="str">
+      <c r="B64" s="31" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
 牙牙乐
@@ -2563,15 +2562,15 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C64" s="14" t="str">
+      <c r="C64" s="29" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="92" r="65">
-      <c r="A65" s="12">
+      <c r="A65" s="30">
         <v>612</v>
       </c>
-      <c r="B65" s="13" t="str">
+      <c r="B65" s="31" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
@@ -2579,15 +2578,15 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C65" s="14" t="str">
+      <c r="C65" s="29" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="195" r="66">
-      <c r="A66" s="12">
+      <c r="A66" s="30">
         <v>621</v>
       </c>
-      <c r="B66" s="13" t="str">
+      <c r="B66" s="31" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
 牙牙乐
@@ -2603,15 +2602,15 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C66" s="14" t="str">
+      <c r="C66" s="29" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="95" r="67">
-      <c r="A67" s="12">
+      <c r="A67" s="30">
         <v>622</v>
       </c>
-      <c r="B67" s="13" t="str">
+      <c r="B67" s="31" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
@@ -2619,29 +2618,29 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C67" s="14" t="str">
+      <c r="C67" s="29" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="76" r="68">
-      <c r="A68" s="12">
+      <c r="A68" s="30">
         <v>623</v>
       </c>
-      <c r="B68" s="13" t="str">
+      <c r="B68" s="31" t="str">
         <v>牙牙乐
 没有人知道这次的祭品究竟是不是人类的排泄物。
 牙牙乐
 以防万一，我想你可以去冥府侧殿的侍女处找到合适的容器来盛装。</v>
       </c>
-      <c r="C68" s="14" t="str">
+      <c r="C68" s="29" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12">
+      <c r="A69" s="30">
         <v>6991</v>
       </c>
-      <c r="B69" s="13" t="str">
+      <c r="B69" s="31" t="str">
         <v>贝尔芬格
 ……
 主角1
@@ -2659,31 +2658,31 @@
 主角12
 看来我自己去获取祭品就好。</v>
       </c>
-      <c r="C69" s="14" t="str">
+      <c r="C69" s="29" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：1；2；3；4；5</v>
       </c>
     </row>
     <row customHeight="true" ht="78" r="70">
-      <c r="A70" s="12">
+      <c r="A70" s="30">
         <v>6992</v>
       </c>
-      <c r="B70" s="13" t="str">
+      <c r="B70" s="31" t="str">
         <v>贝尔芬格
 ......</v>
       </c>
-      <c r="C70" s="14" t="str">
+      <c r="C70" s="29" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：6；7</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21">
+      <c r="A71" s="20">
         <v>710</v>
       </c>
-      <c r="B71" s="22" t="str">
+      <c r="B71" s="25" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2702,17 +2701,17 @@
 711|712|999
 </v>
       </c>
-      <c r="C71" s="23" t="str">
+      <c r="C71" s="22" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：1；2；3；4；5；6</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21">
+      <c r="A72" s="20">
         <v>720</v>
       </c>
-      <c r="B72" s="22" t="str">
+      <c r="B72" s="25" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2730,17 +2729,17 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C72" s="23" t="str">
+      <c r="C72" s="22" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：7</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>730</v>
       </c>
-      <c r="B73" s="22" t="str">
+      <c r="B73" s="25" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2758,7 +2757,7 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C73" s="23" t="str">
+      <c r="C73" s="22" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：5
@@ -2766,10 +2765,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="21">
+      <c r="A74" s="20">
         <v>711</v>
       </c>
-      <c r="B74" s="22" t="str">
+      <c r="B74" s="25" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2781,15 +2780,15 @@
 Options 
 711|712|999</v>
       </c>
-      <c r="C74" s="23" t="str">
+      <c r="C74" s="22" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="21">
+      <c r="A75" s="20">
         <v>712</v>
       </c>
-      <c r="B75" s="24" t="str">
+      <c r="B75" s="21" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2797,15 +2796,15 @@
 Options 
 711|712|999</v>
       </c>
-      <c r="C75" s="23" t="str">
+      <c r="C75" s="22" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="160" r="76">
-      <c r="A76" s="21">
+      <c r="A76" s="20">
         <v>721</v>
       </c>
-      <c r="B76" s="22" t="str">
+      <c r="B76" s="25" t="str">
         <v>小小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2817,15 +2816,15 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C76" s="23" t="str">
+      <c r="C76" s="22" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="85" r="77">
-      <c r="A77" s="21">
+      <c r="A77" s="20">
         <v>722</v>
       </c>
-      <c r="B77" s="24" t="str">
+      <c r="B77" s="21" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2833,29 +2832,29 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C77" s="23" t="str">
+      <c r="C77" s="22" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21">
+      <c r="A78" s="20">
         <v>723</v>
       </c>
-      <c r="B78" s="22" t="str">
+      <c r="B78" s="25" t="str">
         <v>小葵
 此刻他正在沉睡。即使在睡梦中，玛门也要与黄金同眠。
 小葵
 我想你需要去找水仙花园的冥府园丁，借助某个工具才能将他从黄金堆里找出。</v>
       </c>
-      <c r="C78" s="23" t="str">
+      <c r="C78" s="22" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="161" r="79">
-      <c r="A79" s="21">
+      <c r="A79" s="20">
         <v>731</v>
       </c>
-      <c r="B79" s="22" t="str">
+      <c r="B79" s="25" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2867,15 +2866,15 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C79" s="23" t="str">
+      <c r="C79" s="22" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="95" r="80">
-      <c r="A80" s="21">
+      <c r="A80" s="20">
         <v>732</v>
       </c>
-      <c r="B80" s="24" t="str">
+      <c r="B80" s="21" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2883,28 +2882,28 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C80" s="23" t="str">
+      <c r="C80" s="22" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="21">
+      <c r="A81" s="20">
         <v>734</v>
       </c>
-      <c r="B81" s="24" t="str">
+      <c r="B81" s="21" t="str">
         <v>小葵
 啊！我想你需要的是这个狮鹫夜壶。</v>
       </c>
-      <c r="C81" s="23" t="str">
+      <c r="C81" s="22" t="str">
         <v>冥府侧殿
 玩家道具栏新增狮鹫夜壶</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="21">
+      <c r="A82" s="20">
         <v>7991</v>
       </c>
-      <c r="B82" s="24" t="str">
+      <c r="B82" s="21" t="str">
         <v>玛门
 没有一个瞬间，不会成为地狱的进口。没有一个瞬间，不会成为天堂的流水。
 玛门
@@ -2916,17 +2915,17 @@
 主角3
 人设还真是始终如一地不ooc呢……</v>
       </c>
-      <c r="C82" s="23" t="str">
+      <c r="C82" s="22" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：1；2；3；4；5；6；7</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5">
+      <c r="A83" s="16">
         <v>810</v>
       </c>
-      <c r="B83" s="3" t="str">
+      <c r="B83" s="17" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -2948,17 +2947,17 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C83" s="4" t="str">
+      <c r="C83" s="18" t="str">
         <v>混沌之地
 出现条件
 对应轮次：1；2；3；4；5；7</v>
       </c>
     </row>
     <row customHeight="true" ht="315" r="84">
-      <c r="A84" s="5">
+      <c r="A84" s="16">
         <v>820</v>
       </c>
-      <c r="B84" s="3" t="str">
+      <c r="B84" s="17" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -2980,17 +2979,17 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C84" s="4" t="str">
+      <c r="C84" s="18" t="str">
         <v>混沌之地
 出现条件
 对应轮次：6</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5">
+      <c r="A85" s="16">
         <v>830</v>
       </c>
-      <c r="B85" s="3" t="str">
+      <c r="B85" s="17" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -3012,7 +3011,7 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C85" s="4" t="str">
+      <c r="C85" s="18" t="str">
         <v>混沌之地
 出现条件
 对应轮次：4
@@ -3020,10 +3019,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5">
+      <c r="A86" s="16">
         <v>811</v>
       </c>
-      <c r="B86" s="3" t="str">
+      <c r="B86" s="17" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3035,15 +3034,15 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C86" s="4" t="str">
+      <c r="C86" s="18" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5">
+      <c r="A87" s="16">
         <v>812</v>
       </c>
-      <c r="B87" s="3" t="str">
+      <c r="B87" s="17" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3051,15 +3050,15 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C87" s="4" t="str">
+      <c r="C87" s="18" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="186" r="88">
-      <c r="A88" s="5">
+      <c r="A88" s="16">
         <v>821</v>
       </c>
-      <c r="B88" s="3" t="str">
+      <c r="B88" s="17" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3071,15 +3070,15 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C88" s="4" t="str">
+      <c r="C88" s="18" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="96" r="89">
-      <c r="A89" s="5">
+      <c r="A89" s="16">
         <v>822</v>
       </c>
-      <c r="B89" s="3" t="str">
+      <c r="B89" s="17" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3087,28 +3086,28 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C89" s="4" t="str">
+      <c r="C89" s="18" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="54" r="90">
-      <c r="A90" s="5">
+      <c r="A90" s="16">
         <v>823</v>
       </c>
-      <c r="B90" s="3" t="str">
+      <c r="B90" s="17" t="str">
         <v>蓝七
 从撒旦身上获取的食材需要特殊的容器才能储存，你可以在亡灵饮水地找到你所需要的物品。</v>
       </c>
-      <c r="C90" s="36" t="str">
+      <c r="C90" s="19" t="str">
         <v>混沌之地
 乌洛波洛斯之盘自行拾取</v>
       </c>
     </row>
     <row customHeight="true" ht="185" r="91">
-      <c r="A91" s="5">
+      <c r="A91" s="16">
         <v>831</v>
       </c>
-      <c r="B91" s="3" t="str">
+      <c r="B91" s="17" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3120,15 +3119,15 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C91" s="4" t="str">
+      <c r="C91" s="18" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="105" r="92">
-      <c r="A92" s="5">
+      <c r="A92" s="16">
         <v>832</v>
       </c>
-      <c r="B92" s="3" t="str">
+      <c r="B92" s="17" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3136,28 +3135,28 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C92" s="4" t="str">
+      <c r="C92" s="18" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5">
+      <c r="A93" s="16">
         <v>834</v>
       </c>
-      <c r="B93" s="3" t="str">
+      <c r="B93" s="17" t="str">
         <v>蓝七
 啊！我想你需要厄洛斯之香。即使是再强大的恶魔，它也能使其陷入沉睡。</v>
       </c>
-      <c r="C93" s="4" t="str">
+      <c r="C93" s="18" t="str">
         <v>混沌之地
 玩家道具栏增加厄洛斯之香</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5">
+      <c r="A94" s="16">
         <v>8991</v>
       </c>
-      <c r="B94" s="3" t="str">
+      <c r="B94" s="17" t="str">
         <v>撒旦
 我一直在看着你，女孩。
 撒旦
@@ -3171,31 +3170,31 @@
 撒旦
 既然别西卜想要，我就不为难你了。不必怜惜我，我不会感到疼痛……</v>
       </c>
-      <c r="C94" s="4" t="str">
+      <c r="C94" s="18" t="str">
         <v>混沌之地
 出现条件
 对应轮次：1；2；3；4；5；6</v>
       </c>
     </row>
     <row customHeight="true" ht="68" r="95">
-      <c r="A95" s="5">
+      <c r="A95" s="16">
         <v>8992</v>
       </c>
-      <c r="B95" s="3" t="str">
+      <c r="B95" s="17" t="str">
         <v>撒旦
 ......</v>
       </c>
-      <c r="C95" s="4" t="str">
+      <c r="C95" s="18" t="str">
         <v>混沌之地
 出现条件
 对应轮次：7</v>
       </c>
     </row>
     <row customHeight="true" ht="81" r="96">
-      <c r="A96" s="9">
+      <c r="A96" s="10">
         <v>910</v>
       </c>
-      <c r="B96" s="10" t="str">
+      <c r="B96" s="8" t="str">
         <v>Narrator
 你做出了连恶魔都难以下咽的食物……
 Narrator
@@ -3204,10 +3203,10 @@
       <c r="C96" s="11"/>
     </row>
     <row r="97">
-      <c r="A97" s="9">
+      <c r="A97" s="10">
         <v>920</v>
       </c>
-      <c r="B97" s="10" t="str">
+      <c r="B97" s="8" t="str">
         <v>因诺
 不知道现在告诉你这些会不会太晚了……
 因诺
@@ -3219,17 +3218,17 @@
 Options 
 921|922</v>
       </c>
-      <c r="C97" s="32" t="str">
+      <c r="C97" s="9" t="str">
         <v>第六道菜结束后（别西卜发布任务后）弹出的对话
 选项921-进入逃离失败结局部分
 选项922-进入第七轮次的白日地图</v>
       </c>
     </row>
     <row customHeight="true" ht="735" r="98">
-      <c r="A98" s="9">
+      <c r="A98" s="10">
         <v>930</v>
       </c>
-      <c r="B98" s="10" t="str">
+      <c r="B98" s="8" t="str">
         <v>Narrator
 你以为你成功了吗？
 Narrator
@@ -3288,10 +3287,10 @@
       </c>
     </row>
     <row customHeight="true" ht="148" r="99">
-      <c r="A99" s="9">
+      <c r="A99" s="10">
         <v>921</v>
       </c>
-      <c r="B99" s="10" t="str">
+      <c r="B99" s="8" t="str">
         <v>Narrator
 多么天真可爱、盲目轻信的小女孩……
 Narrator
@@ -3306,829 +3305,836 @@
       <c r="C99" s="11"/>
     </row>
     <row r="100">
-      <c r="A100" s="17"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="8"/>
+      <c r="A100" s="12">
+        <v>922</v>
+      </c>
+      <c r="B100" s="13" t="str">
+        <v>因诺
+还是做出了这样的决定吗？
+因诺
+或许这就是命运吧。</v>
+      </c>
+      <c r="C100" s="3"/>
     </row>
     <row r="101">
-      <c r="A101" s="6"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="8"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="6"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="8"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112">
-      <c r="A112" s="6"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116">
-      <c r="A116" s="6"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="8"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="8"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="6"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="8"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="8"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120">
-      <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="8"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124">
-      <c r="A124" s="6"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="8"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125">
-      <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="8"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="8"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127">
-      <c r="A127" s="6"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128">
-      <c r="A128" s="6"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="8"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="8"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="8"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132">
-      <c r="A132" s="6"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="8"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133">
-      <c r="A133" s="6"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="8"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="6"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="8"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="6"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="6"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="8"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="8"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138">
-      <c r="A138" s="6"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="8"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139">
-      <c r="A139" s="6"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="8"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140">
-      <c r="A140" s="6"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="8"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="8"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="8"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="6"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="8"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145">
-      <c r="A145" s="6"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="8"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146">
-      <c r="A146" s="6"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="8"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="8"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148">
-      <c r="A148" s="6"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="8"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149">
-      <c r="A149" s="6"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="8"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150">
-      <c r="A150" s="6"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="8"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="8"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152">
-      <c r="A152" s="6"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="8"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153">
-      <c r="A153" s="6"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="8"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154">
-      <c r="A154" s="6"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155">
-      <c r="A155" s="6"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="8"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156">
-      <c r="A156" s="6"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="8"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157">
-      <c r="A157" s="6"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="8"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="6"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="8"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="6"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="8"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="6"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="8"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161">
-      <c r="A161" s="6"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="8"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162">
-      <c r="A162" s="6"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="8"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163">
-      <c r="A163" s="6"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="8"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164">
-      <c r="A164" s="6"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="8"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165">
-      <c r="A165" s="6"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="8"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166">
-      <c r="A166" s="6"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="8"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167">
-      <c r="A167" s="6"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="8"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168">
-      <c r="A168" s="6"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="8"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="3"/>
     </row>
     <row r="169">
-      <c r="A169" s="6"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="8"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170">
-      <c r="A170" s="6"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="8"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171">
-      <c r="A171" s="6"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="8"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172">
-      <c r="A172" s="6"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="8"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173">
-      <c r="A173" s="6"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="8"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174">
-      <c r="A174" s="6"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="8"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175">
-      <c r="A175" s="6"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="8"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176">
-      <c r="A176" s="6"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="8"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177">
-      <c r="A177" s="6"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="8"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178">
-      <c r="A178" s="6"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="8"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179">
-      <c r="A179" s="6"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="8"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180">
-      <c r="A180" s="6"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="8"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181">
-      <c r="A181" s="6"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="8"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182">
-      <c r="A182" s="6"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="8"/>
+      <c r="A182" s="4"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183">
-      <c r="A183" s="6"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="8"/>
+      <c r="A183" s="4"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184">
-      <c r="A184" s="6"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="8"/>
+      <c r="A184" s="4"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185">
-      <c r="A185" s="6"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="8"/>
+      <c r="A185" s="4"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="3"/>
     </row>
     <row r="186">
-      <c r="A186" s="6"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="8"/>
+      <c r="A186" s="4"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="3"/>
     </row>
     <row r="187">
-      <c r="A187" s="6"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="8"/>
+      <c r="A187" s="4"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="3"/>
     </row>
     <row r="188">
-      <c r="A188" s="6"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="8"/>
+      <c r="A188" s="4"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="3"/>
     </row>
     <row r="189">
-      <c r="A189" s="6"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="8"/>
+      <c r="A189" s="4"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="3"/>
     </row>
     <row r="190">
-      <c r="A190" s="6"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="8"/>
+      <c r="A190" s="4"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191">
-      <c r="A191" s="6"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="8"/>
+      <c r="A191" s="4"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192">
-      <c r="A192" s="6"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="8"/>
+      <c r="A192" s="4"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193">
-      <c r="A193" s="6"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="8"/>
+      <c r="A193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194">
-      <c r="A194" s="6"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="8"/>
+      <c r="A194" s="4"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="3"/>
     </row>
     <row r="195">
-      <c r="A195" s="6"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="8"/>
+      <c r="A195" s="4"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="3"/>
     </row>
     <row r="196">
-      <c r="A196" s="6"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="8"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197">
-      <c r="A197" s="6"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="8"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="3"/>
     </row>
     <row r="198">
-      <c r="A198" s="6"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="8"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199">
-      <c r="A199" s="6"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="8"/>
+      <c r="A199" s="4"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="3"/>
     </row>
     <row r="200">
-      <c r="A200" s="6"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="8"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="3"/>
     </row>
     <row r="201">
-      <c r="A201" s="6"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="8"/>
+      <c r="A201" s="4"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202">
-      <c r="A202" s="6"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="8"/>
+      <c r="A202" s="4"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203">
-      <c r="A203" s="6"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="8"/>
+      <c r="A203" s="4"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="3"/>
     </row>
     <row r="204">
-      <c r="A204" s="6"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="8"/>
+      <c r="A204" s="4"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205">
-      <c r="A205" s="6"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="8"/>
+      <c r="A205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="3"/>
     </row>
     <row r="206">
-      <c r="A206" s="6"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="8"/>
+      <c r="A206" s="4"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207">
-      <c r="A207" s="6"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="8"/>
+      <c r="A207" s="4"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="3"/>
     </row>
     <row r="208">
-      <c r="A208" s="6"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="8"/>
+      <c r="A208" s="4"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209">
-      <c r="A209" s="6"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="8"/>
+      <c r="A209" s="4"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="3"/>
     </row>
     <row r="210">
-      <c r="A210" s="6"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="8"/>
+      <c r="A210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="3"/>
     </row>
     <row r="211">
-      <c r="A211" s="6"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="8"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="3"/>
     </row>
     <row r="212">
-      <c r="A212" s="6"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="8"/>
+      <c r="A212" s="4"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="3"/>
     </row>
     <row r="213">
-      <c r="A213" s="6"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="8"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="3"/>
     </row>
     <row r="214">
-      <c r="A214" s="6"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="8"/>
+      <c r="A214" s="4"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215">
-      <c r="A215" s="6"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="8"/>
+      <c r="A215" s="4"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="3"/>
     </row>
     <row r="216">
-      <c r="A216" s="6"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="8"/>
+      <c r="A216" s="4"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217">
-      <c r="A217" s="6"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="8"/>
+      <c r="A217" s="4"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="3"/>
     </row>
     <row r="218">
-      <c r="A218" s="6"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="8"/>
+      <c r="A218" s="4"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219">
-      <c r="A219" s="6"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="8"/>
+      <c r="A219" s="4"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="3"/>
     </row>
     <row r="220">
-      <c r="A220" s="6"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="8"/>
+      <c r="A220" s="4"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="3"/>
     </row>
     <row r="221">
-      <c r="A221" s="6"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="8"/>
+      <c r="A221" s="4"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="3"/>
     </row>
     <row r="222">
-      <c r="A222" s="6"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="8"/>
+      <c r="A222" s="4"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="3"/>
     </row>
     <row r="223">
-      <c r="A223" s="6"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="8"/>
+      <c r="A223" s="4"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="3"/>
     </row>
     <row r="224">
-      <c r="A224" s="6"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="8"/>
+      <c r="A224" s="4"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="3"/>
     </row>
     <row r="225">
-      <c r="A225" s="6"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="8"/>
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="3"/>
     </row>
     <row r="226">
-      <c r="A226" s="6"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="8"/>
+      <c r="A226" s="4"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="3"/>
     </row>
     <row r="227">
-      <c r="A227" s="6"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="8"/>
+      <c r="A227" s="4"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228">
-      <c r="A228" s="6"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="8"/>
+      <c r="A228" s="4"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229">
-      <c r="A229" s="6"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="8"/>
+      <c r="A229" s="4"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="3"/>
     </row>
     <row r="230">
-      <c r="A230" s="6"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="8"/>
+      <c r="A230" s="4"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="3"/>
     </row>
     <row r="231">
-      <c r="A231" s="6"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="8"/>
+      <c r="A231" s="4"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="3"/>
     </row>
     <row r="232">
-      <c r="A232" s="6"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="8"/>
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="3"/>
     </row>
     <row r="233">
-      <c r="A233" s="6"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="8"/>
+      <c r="A233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="3"/>
     </row>
     <row r="234">
-      <c r="A234" s="6"/>
-      <c r="B234" s="7"/>
-      <c r="C234" s="8"/>
+      <c r="A234" s="4"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="3"/>
     </row>
     <row r="235">
-      <c r="A235" s="6"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="8"/>
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="3"/>
     </row>
     <row r="236">
-      <c r="A236" s="6"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="8"/>
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="3"/>
     </row>
     <row r="237">
-      <c r="A237" s="6"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="8"/>
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="3"/>
     </row>
     <row r="238">
-      <c r="A238" s="6"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="8"/>
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="3"/>
     </row>
     <row r="239">
-      <c r="A239" s="6"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="8"/>
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240">
-      <c r="A240" s="6"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="8"/>
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241">
-      <c r="A241" s="6"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="8"/>
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242">
-      <c r="A242" s="6"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="8"/>
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="3"/>
     </row>
     <row r="243">
-      <c r="A243" s="6"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="8"/>
+      <c r="A243" s="4"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="3"/>
     </row>
     <row r="244">
-      <c r="A244" s="6"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="8"/>
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245">
-      <c r="A245" s="6"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="8"/>
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="3"/>
     </row>
     <row r="246">
-      <c r="A246" s="6"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="8"/>
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="3"/>
     </row>
     <row r="247">
-      <c r="A247" s="6"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="8"/>
+      <c r="A247" s="4"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="3"/>
     </row>
     <row r="248">
-      <c r="A248" s="6"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="8"/>
+      <c r="A248" s="4"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249">
-      <c r="A249" s="6"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="8"/>
+      <c r="A249" s="4"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="3"/>
     </row>
     <row r="250">
-      <c r="A250" s="6"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="8"/>
+      <c r="A250" s="4"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="3"/>
     </row>
     <row r="251">
-      <c r="A251" s="6"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="8"/>
+      <c r="A251" s="4"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252">
-      <c r="A252" s="6"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="8"/>
+      <c r="A252" s="4"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253">
-      <c r="A253" s="6"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="8"/>
+      <c r="A253" s="4"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="3"/>
     </row>
     <row r="254">
-      <c r="A254" s="6"/>
-      <c r="B254" s="7"/>
-      <c r="C254" s="8"/>
+      <c r="A254" s="4"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="3"/>
     </row>
     <row r="255">
-      <c r="A255" s="6"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="8"/>
+      <c r="A255" s="4"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="3"/>
     </row>
     <row r="256">
-      <c r="A256" s="6"/>
-      <c r="B256" s="7"/>
-      <c r="C256" s="8"/>
+      <c r="A256" s="4"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="3"/>
     </row>
     <row r="257">
-      <c r="A257" s="6"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="8"/>
+      <c r="A257" s="4"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="3"/>
     </row>
     <row r="258">
-      <c r="A258" s="6"/>
-      <c r="B258" s="7"/>
-      <c r="C258" s="8"/>
+      <c r="A258" s="4"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="3"/>
     </row>
     <row r="259">
-      <c r="A259" s="6"/>
-      <c r="B259" s="7"/>
-      <c r="C259" s="8"/>
+      <c r="A259" s="4"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="3"/>
     </row>
     <row r="260">
-      <c r="A260" s="6"/>
-      <c r="B260" s="7"/>
-      <c r="C260" s="8"/>
+      <c r="A260" s="4"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="3"/>
     </row>
     <row r="261">
-      <c r="A261" s="6"/>
-      <c r="B261" s="7"/>
-      <c r="C261" s="8"/>
+      <c r="A261" s="4"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="3"/>
     </row>
     <row r="262">
-      <c r="A262" s="6"/>
-      <c r="B262" s="7"/>
-      <c r="C262" s="8"/>
+      <c r="A262" s="4"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263">
-      <c r="A263" s="6"/>
-      <c r="B263" s="7"/>
-      <c r="C263" s="8"/>
+      <c r="A263" s="4"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="3"/>
     </row>
     <row r="264">
-      <c r="A264" s="6"/>
-      <c r="B264" s="7"/>
-      <c r="C264" s="8"/>
+      <c r="A264" s="4"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="3"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4151,663 +4157,663 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="str">
+      <c r="A1" s="26" t="str">
         <v>OptionId</v>
       </c>
-      <c r="B1" s="18" t="str">
+      <c r="B1" s="26" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="18" t="str">
+      <c r="C1" s="26" t="str">
         <v>NextDialogueId</v>
       </c>
-      <c r="D1" s="8" t="str">
+      <c r="D1" s="3" t="str">
         <v>GetItemId</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="26" t="str">
         <v>和Dialogue表里面的Opetions对应</v>
       </c>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="26" t="str">
         <v>选项文字内容</v>
       </c>
-      <c r="C2" s="18" t="str">
+      <c r="C2" s="26" t="str">
         <v>要触发的对话ID
 0表示会话结束</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="7" t="str">
         <v>我可以在哪些地方获取食材？</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="7" t="str">
         <v>烹饪的流程是怎样的？</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>112</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="7" t="str">
         <v>没什么要问的了</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>113</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>211</v>
       </c>
       <c r="B6" s="39" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>212</v>
       </c>
       <c r="B7" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>212</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>221</v>
       </c>
       <c r="B8" s="39" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>221</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>222</v>
       </c>
       <c r="B9" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>222</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>223</v>
       </c>
       <c r="B10" s="39" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>223</v>
       </c>
     </row>
     <row customHeight="true" ht="46" r="11">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>231</v>
       </c>
       <c r="B11" s="39" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>231</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>232</v>
       </c>
       <c r="B12" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>232</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>234</v>
       </c>
       <c r="B13" s="39" t="str">
         <v>喀戎河畔的渡河人告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>234</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="3" t="str">
         <v>混沌三叉戟</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="14">
-      <c r="A14" s="35">
+      <c r="A14" s="1">
         <v>311</v>
       </c>
-      <c r="B14" s="38" t="str">
+      <c r="B14" s="44" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="1">
         <v>311</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="15">
-      <c r="A15" s="35">
+      <c r="A15" s="1">
         <v>312</v>
       </c>
-      <c r="B15" s="38" t="str">
+      <c r="B15" s="44" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="1">
         <v>312</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="16">
-      <c r="A16" s="35">
+      <c r="A16" s="1">
         <v>321</v>
       </c>
-      <c r="B16" s="38" t="str">
+      <c r="B16" s="44" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="1">
         <v>321</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="17">
-      <c r="A17" s="35">
+      <c r="A17" s="1">
         <v>322</v>
       </c>
-      <c r="B17" s="38" t="str">
+      <c r="B17" s="44" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="1">
         <v>322</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="18">
-      <c r="A18" s="35">
+      <c r="A18" s="1">
         <v>323</v>
       </c>
-      <c r="B18" s="38" t="str">
+      <c r="B18" s="44" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="1">
         <v>323</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="19">
-      <c r="A19" s="35">
+      <c r="A19" s="1">
         <v>331</v>
       </c>
-      <c r="B19" s="38" t="str">
+      <c r="B19" s="44" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="1">
         <v>331</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="20">
-      <c r="A20" s="35">
+      <c r="A20" s="1">
         <v>332</v>
       </c>
-      <c r="B20" s="38" t="str">
+      <c r="B20" s="44" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="1">
         <v>332</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="21">
-      <c r="A21" s="47">
+      <c r="A21" s="43">
         <v>334</v>
       </c>
-      <c r="B21" s="38" t="str">
+      <c r="B21" s="44" t="str">
         <v>塔尔塔洛斯的守卫告诉我你会有帮助我获得食材的道具。</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="43">
         <v>334</v>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="3" t="str">
         <v>地狱弯刀</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="22">
-      <c r="A22" s="42">
+      <c r="A22" s="40">
         <v>411</v>
       </c>
-      <c r="B22" s="36" t="str">
+      <c r="B22" s="19" t="str">
         <v>利维坦是怎样的恶魔</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="40">
         <v>411</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="40">
         <v>412</v>
       </c>
-      <c r="B23" s="36" t="str">
+      <c r="B23" s="19" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="40">
         <v>412</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="42">
+      <c r="A24" s="40">
         <v>421</v>
       </c>
-      <c r="B24" s="36" t="str">
+      <c r="B24" s="19" t="str">
         <v>利维坦是怎样的恶魔</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="40">
         <v>421</v>
       </c>
     </row>
     <row customHeight="true" ht="39" r="25">
-      <c r="A25" s="42">
+      <c r="A25" s="40">
         <v>422</v>
       </c>
-      <c r="B25" s="36" t="str">
+      <c r="B25" s="19" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="40">
         <v>422</v>
       </c>
     </row>
     <row customHeight="true" ht="35" r="26">
-      <c r="A26" s="42">
+      <c r="A26" s="40">
         <v>423</v>
       </c>
-      <c r="B26" s="36" t="str">
+      <c r="B26" s="19" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="40">
         <v>423</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="14">
+      <c r="A27" s="29">
         <v>511</v>
       </c>
-      <c r="B27" s="37" t="str">
+      <c r="B27" s="48" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="29">
         <v>511</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13">
+      <c r="A28" s="31">
         <v>512</v>
       </c>
-      <c r="B28" s="37" t="str">
+      <c r="B28" s="48" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="31">
         <v>512</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="14">
+      <c r="A29" s="29">
         <v>521</v>
       </c>
-      <c r="B29" s="37" t="str">
+      <c r="B29" s="48" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="29">
         <v>521</v>
       </c>
     </row>
     <row customHeight="true" ht="30" r="30">
-      <c r="A30" s="13">
+      <c r="A30" s="31">
         <v>522</v>
       </c>
-      <c r="B30" s="37" t="str">
+      <c r="B30" s="48" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="31">
         <v>522</v>
       </c>
     </row>
     <row customHeight="true" ht="34" r="31">
-      <c r="A31" s="13">
+      <c r="A31" s="31">
         <v>523</v>
       </c>
-      <c r="B31" s="37" t="str">
+      <c r="B31" s="48" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="31">
         <v>523</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="14">
+      <c r="A32" s="29">
         <v>531</v>
       </c>
-      <c r="B32" s="37" t="str">
+      <c r="B32" s="48" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="29">
         <v>531</v>
       </c>
     </row>
     <row customHeight="true" ht="34" r="33">
-      <c r="A33" s="13">
+      <c r="A33" s="31">
         <v>532</v>
       </c>
-      <c r="B33" s="37" t="str">
+      <c r="B33" s="48" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="31">
         <v>532</v>
       </c>
     </row>
     <row customHeight="true" ht="44" r="34">
-      <c r="A34" s="13">
+      <c r="A34" s="31">
         <v>534</v>
       </c>
-      <c r="B34" s="37" t="str">
+      <c r="B34" s="48" t="str">
         <v>冥府侧殿的侍女告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="31">
         <v>534</v>
       </c>
-      <c r="D34" s="8" t="str">
+      <c r="D34" s="3" t="str">
         <v>金十字镐</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="48">
+      <c r="A35" s="41">
         <v>611</v>
       </c>
-      <c r="B35" s="46" t="str">
+      <c r="B35" s="42" t="str">
         <v>贝尔芬格是怎样的恶魔？</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="41">
         <v>611</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="26">
+      <c r="A36" s="14">
         <v>612</v>
       </c>
-      <c r="B36" s="46" t="str">
+      <c r="B36" s="42" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="14">
         <v>612</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="37">
-      <c r="A37" s="48">
+      <c r="A37" s="41">
         <v>621</v>
       </c>
-      <c r="B37" s="46" t="str">
+      <c r="B37" s="42" t="str">
         <v>贝尔芬格是怎样的恶魔？</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="41">
         <v>621</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="38">
-      <c r="A38" s="26">
+      <c r="A38" s="14">
         <v>622</v>
       </c>
-      <c r="B38" s="46" t="str">
+      <c r="B38" s="42" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="14">
         <v>622</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="48">
+      <c r="A39" s="41">
         <v>623</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="42" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="41">
         <v>623</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="28">
+      <c r="A40" s="33">
         <v>711</v>
       </c>
-      <c r="B40" s="31" t="str">
+      <c r="B40" s="36" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="33">
         <v>711</v>
       </c>
     </row>
     <row customHeight="true" ht="40" r="41">
-      <c r="A41" s="30">
+      <c r="A41" s="34">
         <v>712</v>
       </c>
-      <c r="B41" s="31" t="str">
+      <c r="B41" s="36" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="34">
         <v>712</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="42">
-      <c r="A42" s="28">
+      <c r="A42" s="33">
         <v>721</v>
       </c>
-      <c r="B42" s="31" t="str">
+      <c r="B42" s="36" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="33">
         <v>721</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="43">
-      <c r="A43" s="30">
+      <c r="A43" s="34">
         <v>722</v>
       </c>
-      <c r="B43" s="31" t="str">
+      <c r="B43" s="36" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="34">
         <v>722</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="28">
+      <c r="A44" s="33">
         <v>723</v>
       </c>
-      <c r="B44" s="31" t="str">
+      <c r="B44" s="36" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="33">
         <v>723</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="45">
-      <c r="A45" s="28">
+      <c r="A45" s="33">
         <v>731</v>
       </c>
-      <c r="B45" s="31" t="str">
+      <c r="B45" s="36" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="33">
         <v>731</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="46">
-      <c r="A46" s="30">
+      <c r="A46" s="34">
         <v>732</v>
       </c>
-      <c r="B46" s="31" t="str">
+      <c r="B46" s="36" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="34">
         <v>732</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="30">
+      <c r="A47" s="34">
         <v>734</v>
       </c>
-      <c r="B47" s="31" t="str">
+      <c r="B47" s="36" t="str">
         <v>亡灵饮水地的神女告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="34">
         <v>734</v>
       </c>
-      <c r="D47" s="8" t="str">
+      <c r="D47" s="3" t="str">
         <v>狮鹫夜壶</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="40">
+      <c r="A48" s="37">
         <v>811</v>
       </c>
-      <c r="B48" s="41" t="str">
+      <c r="B48" s="38" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="37">
         <v>811</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="40">
+      <c r="A49" s="37">
         <v>812</v>
       </c>
-      <c r="B49" s="41" t="str">
+      <c r="B49" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="37">
         <v>812</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="50">
-      <c r="A50" s="40">
+      <c r="A50" s="37">
         <v>821</v>
       </c>
-      <c r="B50" s="41" t="str">
+      <c r="B50" s="38" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="37">
         <v>821</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="51">
-      <c r="A51" s="40">
+      <c r="A51" s="37">
         <v>822</v>
       </c>
-      <c r="B51" s="41" t="str">
+      <c r="B51" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="37">
         <v>822</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="40">
+      <c r="A52" s="37">
         <v>823</v>
       </c>
-      <c r="B52" s="41" t="str">
+      <c r="B52" s="38" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="37">
         <v>823</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="53">
-      <c r="A53" s="40">
+      <c r="A53" s="37">
         <v>831</v>
       </c>
-      <c r="B53" s="41" t="str">
+      <c r="B53" s="38" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="37">
         <v>831</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="54">
-      <c r="A54" s="40">
+      <c r="A54" s="37">
         <v>832</v>
       </c>
-      <c r="B54" s="41" t="str">
+      <c r="B54" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="37">
         <v>832</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="50">
+      <c r="A55" s="47">
         <v>834</v>
       </c>
-      <c r="B55" s="41" t="str">
+      <c r="B55" s="38" t="str">
         <v>极乐之野的守卫告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="47">
         <v>834</v>
       </c>
-      <c r="D55" s="8" t="str">
+      <c r="D55" s="3" t="str">
         <v>厄洛斯之香</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="49">
+      <c r="A56" s="45">
         <v>921</v>
       </c>
-      <c r="B56" s="43" t="str">
+      <c r="B56" s="46" t="str">
         <v>跟她走</v>
       </c>
-      <c r="C56" s="43">
+      <c r="C56" s="46">
         <v>921</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="43">
+      <c r="A57" s="46">
         <v>922</v>
       </c>
-      <c r="B57" s="43" t="str">
+      <c r="B57" s="46" t="str">
         <v>不跟她走</v>
       </c>
-      <c r="C57" s="43">
-        <v>0</v>
+      <c r="C57" s="46">
+        <v>922</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="44">
+      <c r="A59" s="50">
         <v>999</v>
       </c>
-      <c r="B59" s="45" t="str">
+      <c r="B59" s="49" t="str">
         <v>结束对话</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4830,430 +4836,430 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="str">
+      <c r="A1" s="26" t="str">
         <v>
 </v>
       </c>
-      <c r="B1" s="18" t="str">
+      <c r="B1" s="26" t="str">
         <v>
 特殊对话的轮次</v>
       </c>
-      <c r="C1" s="18" t="str">
+      <c r="C1" s="26" t="str">
         <v>特殊DialogueID</v>
       </c>
-      <c r="D1" s="18" t="str">
+      <c r="D1" s="26" t="str">
         <v>普通DialogueID</v>
       </c>
-      <c r="E1" s="18" t="str">
+      <c r="E1" s="26" t="str">
         <v>条件轮次</v>
       </c>
-      <c r="F1" s="18" t="str">
+      <c r="F1" s="26" t="str">
         <v>条件需要触发的DialogueId</v>
       </c>
-      <c r="G1" s="18" t="str">
+      <c r="G1" s="26" t="str">
         <v>条件达成后的DialogueId</v>
       </c>
-      <c r="H1" s="8" t="str">
+      <c r="H1" s="3" t="str">
         <v>需要的道具</v>
       </c>
-      <c r="I1" s="8" t="str">
+      <c r="I1" s="3" t="str">
         <v>使用道具之后获得的食材</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="2">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="26" t="str">
         <v>说明</v>
       </c>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="26" t="str">
         <v>string.
 用 “|”分割</v>
       </c>
-      <c r="C2" s="18" t="str">
+      <c r="C2" s="26" t="str">
         <v>int
 在特殊轮次触发</v>
       </c>
-      <c r="D2" s="18" t="str">
+      <c r="D2" s="26" t="str">
         <v>int
 在非特殊轮次触发</v>
       </c>
-      <c r="E2" s="18" t="str">
+      <c r="E2" s="26" t="str">
         <v>int
 </v>
       </c>
-      <c r="F2" s="18" t="str">
+      <c r="F2" s="26" t="str">
         <v>int</v>
       </c>
-      <c r="G2" s="18" t="str">
+      <c r="G2" s="26" t="str">
         <v>int</v>
       </c>
-      <c r="H2" s="8" t="str">
+      <c r="H2" s="3" t="str">
         <v>string</v>
       </c>
-      <c r="I2" s="8" t="str">
+      <c r="I2" s="3" t="str">
         <v>string</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="26" t="str">
         <v>阿斯摩太</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="26">
         <v>2991</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="26">
         <v>2992</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="26">
         <v>0</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="26">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="26">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="3" t="str">
         <v>地狱弯刀</v>
       </c>
-      <c r="I3" s="8" t="str">
+      <c r="I3" s="3" t="str">
         <v>龙肝</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="26" t="str">
         <v>摩洛克</v>
       </c>
-      <c r="B4" s="18" t="str">
+      <c r="B4" s="26" t="str">
         <v>5|6|7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="3">
         <v>3992</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="26">
         <v>3991</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="26">
         <v>0</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="26">
         <v>0</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="26">
         <v>0</v>
       </c>
-      <c r="H4" s="8" t="str">
+      <c r="H4" s="3" t="str">
         <v>厄洛斯之香</v>
       </c>
-      <c r="I4" s="8" t="str">
+      <c r="I4" s="3" t="str">
         <v>摩洛克牛排</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="str">
+      <c r="A5" s="26" t="str">
         <v>利维坦</v>
       </c>
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="26" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="26">
         <v>4991</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="26">
         <v>4992</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="26">
         <v>0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="str">
+      <c r="H5" s="3" t="str">
         <v>混沌三叉戟</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="3" t="str">
         <v>鲸鱼肉和鱼子酱</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="str">
+      <c r="A6" s="26" t="str">
         <v>巴力</v>
       </c>
-      <c r="B6" s="18" t="str">
+      <c r="B6" s="26" t="str">
         <v>1|2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="26">
         <v>5991</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="26">
         <v>5992</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="26">
         <v>0</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="26">
         <v>0</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="str">
+      <c r="H6" s="3" t="str">
         <v>古希腊陶罐</v>
       </c>
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="3" t="str">
         <v>蟾蜍原液</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="str">
+      <c r="A7" s="26" t="str">
         <v>贝尔芬格</v>
       </c>
-      <c r="B7" s="18" t="str">
+      <c r="B7" s="26" t="str">
         <v>6|7</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>6992</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="26">
         <v>6991</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="26">
         <v>0</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="26">
         <v>0</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="26">
         <v>0</v>
       </c>
-      <c r="H7" s="8" t="str">
+      <c r="H7" s="3" t="str">
         <v>狮鹫夜壶</v>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="3" t="str">
         <v>祭品奶酪</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="26" t="str">
         <v>玛门</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="26">
         <v>0</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="26">
         <v>0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="26">
         <v>7991</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="26">
         <v>0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="26">
         <v>0</v>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="H8" s="3" t="str">
         <v>金十字镐</v>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="3" t="str">
         <v>恶魔玛门</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="str">
+      <c r="A9" s="26" t="str">
         <v>撒旦</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="26">
         <v>8992</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="26">
         <v>8991</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="26">
         <v>0</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="26">
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="26">
         <v>0</v>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="3" t="str">
         <v>乌洛波洛斯之盘</v>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="3" t="str">
         <v>撒旦脑花</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="str">
+      <c r="A10" s="26" t="str">
         <v>大饼</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="26">
         <v>1</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="26">
         <v>220</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="26">
         <v>210</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="26">
         <v>3</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="26">
         <v>423</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="26">
         <v>230</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="str">
+      <c r="A11" s="26" t="str">
         <v>三叶虫</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="26">
         <v>4</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="26">
         <v>320</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="26">
         <v>310</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="26">
         <v>1</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="26">
         <v>223</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="26">
         <v>330</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="str">
+      <c r="A12" s="26" t="str">
         <v>因诺</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="26">
         <v>3</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="26">
         <v>420</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="26">
         <v>410</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="26">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="26">
         <v>0</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="str">
+      <c r="A13" s="26" t="str">
         <v>摸摸</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="26">
         <v>2</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="26">
         <v>520</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="26">
         <v>510</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="26">
         <v>7</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="26">
         <v>723</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="26">
         <v>530</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="str">
+      <c r="A14" s="26" t="str">
         <v>牙牙乐</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="26">
         <v>5</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="26">
         <v>620</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="26">
         <v>610</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="26">
         <v>0</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="26">
         <v>0</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="str">
+      <c r="A15" s="26" t="str">
         <v>小葵</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="26">
         <v>7</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="26">
         <v>720</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="26">
         <v>710</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="26">
         <v>5</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="26">
         <v>623</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="26">
         <v>730</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="str">
+      <c r="A16" s="26" t="str">
         <v>蓝七</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="26">
         <v>6</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="26">
         <v>820</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="26">
         <v>810</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="26">
         <v>4</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="26">
         <v>323</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="26">
         <v>830</v>
       </c>
     </row>

--- a/真的taptap demo/Assets/Resources/database.xlsx
+++ b/真的taptap demo/Assets/Resources/database.xlsx
@@ -45,6 +45,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -52,7 +53,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -85,6 +85,36 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -138,6 +168,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
@@ -156,19 +204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -204,24 +240,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBBFBC"/>
         <bgColor/>
       </patternFill>
@@ -240,97 +258,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF76964"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF76964"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -349,6 +289,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAD82F7"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF76964"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF76964"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -720,154 +720,154 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="9" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="9" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="10" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="10" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="11" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="12" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="11" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="13" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="12" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="14" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="13" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="14" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="15" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="15" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="17" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="19" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="20" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="21" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="22" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="23" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="24" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="25" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="26" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="27" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="28" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="29" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="19" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="30" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="20" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="31" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="21" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="22" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="23" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="24" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="25" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="26" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="27" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="28" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="29" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="30" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="31" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="33" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="34" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="35" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="34" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="36" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="35" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="36" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="37" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="39" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="39" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="40" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="40" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="41" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="42" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="43" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="49" fillId="44" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="43" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="49" fillId="44" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,25 +1198,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="str">
+      <c r="A1" s="17" t="str">
         <v>DialogueId</v>
       </c>
-      <c r="B1" s="26" t="str">
+      <c r="B1" s="34" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="34" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="str">
+      <c r="A2" s="35" t="str">
         <v>编号，触发时候调用</v>
       </c>
-      <c r="B2" s="28" t="str">
+      <c r="B2" s="36" t="str">
         <v>整段对话。一行speaker，一行text。speaker不要冒号，speaker相当于一个ID来控制显示哪张立绘特殊speaker
 Null ：（表示没有立绘）Narrator:（表示全屏显示旁白）Options（表示触发选项，后面跟选项编号，用 “|”分隔）</v>
       </c>
-      <c r="C2" s="28" t="str">
+      <c r="C2" s="36" t="str">
         <v>备注。可以写触发地点，代码不读取，只是为了方便排查
 编号排查：
 1xx-开场剧情及冥府主殿相关
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row customHeight="true" ht="425" r="3">
-      <c r="A3" s="23">
+      <c r="A3" s="30">
         <v>100</v>
       </c>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="29" t="str">
         <v>Narrator
 沉湎……
 Narrator
@@ -1262,18 +1262,18 @@
 Null 
 眼前的苍蝇怪物和这座城堡都令你分外熟悉。这分明是你独立开发的个人游戏中设计出的场景和角色。你掉进了自己制作的游戏里！</v>
       </c>
-      <c r="C3" s="24" t="str">
+      <c r="C3" s="29" t="str">
         <v>开场剧情
 Null 处配的是哥特宫殿那张图</v>
       </c>
     </row>
     <row customHeight="true" ht="350" r="4">
-      <c r="A4" s="23">
+      <c r="A4" s="30">
         <v>110</v>
       </c>
-      <c r="B4" s="24" t="str">
+      <c r="B4" s="29" t="str">
         <v>别西卜
-你好，戴着白色厨师帽的女孩。我想你就是来应聘地狱主厨的候选人了。
+你好，系着红色围裙的女孩。我想你就是来应聘地狱主厨的候选人了。
 主角7
 ？？？做梦也能梦进自己做的游戏里去吗？喂我真的有这么热爱工作吗……
 别西卜
@@ -1297,15 +1297,15 @@
 Options 
 11|12|10</v>
       </c>
-      <c r="C4" s="24" t="str">
+      <c r="C4" s="29" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="120" r="5">
-      <c r="A5" s="23">
+      <c r="A5" s="30">
         <v>111</v>
       </c>
-      <c r="B5" s="24" t="str">
+      <c r="B5" s="29" t="str">
         <v>别西卜
 万魔殿的每个地点都在等待着你的探索。
 别西卜
@@ -1315,15 +1315,15 @@
 Options
 11|12|10</v>
       </c>
-      <c r="C5" s="24" t="str">
+      <c r="C5" s="29" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="163" r="6">
-      <c r="A6" s="23">
+      <c r="A6" s="30">
         <v>112</v>
       </c>
-      <c r="B6" s="24" t="str">
+      <c r="B6" s="29" t="str">
         <v>别西卜
 每道菜有一份标准主食和一份标准辅食。
 别西卜
@@ -1335,15 +1335,15 @@
 Options
 11|12|10</v>
       </c>
-      <c r="C6" s="24" t="str">
+      <c r="C6" s="29" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="7">
-      <c r="A7" s="23">
+      <c r="A7" s="30">
         <v>113</v>
       </c>
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="29" t="str">
         <v>别西卜
 第一道菜是无花果香煎龙肝。
 主角6
@@ -1351,15 +1351,15 @@
 主角7
 早知道将新手教程做得更清晰一些了……！</v>
       </c>
-      <c r="C7" s="24" t="str">
+      <c r="C7" s="29" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="8">
-      <c r="A8" s="23">
+      <c r="A8" s="30">
         <v>102</v>
       </c>
-      <c r="B8" s="24" t="str">
+      <c r="B8" s="29" t="str">
         <v>别西卜
 第二道菜是藏红花蟾蜍浓汤。
 主角6
@@ -1367,17 +1367,17 @@
 主角7
 蟾蜍在花园里找找？藏红花什么的，还是在原野上比较多吧。</v>
       </c>
-      <c r="C8" s="24" t="str">
+      <c r="C8" s="29" t="str">
         <v>第一道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
     <row customHeight="true" ht="106" r="9">
-      <c r="A9" s="23">
+      <c r="A9" s="30">
         <v>103</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="29" t="str">
         <v>别西卜
 第三道菜是香槟鱼子酱酿鱼。
 主角6
@@ -1385,16 +1385,16 @@
 主角7
 香槟酒什么的或许能在宫殿找到。</v>
       </c>
-      <c r="C9" s="24" t="str">
+      <c r="C9" s="29" t="str">
         <v>第二道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="10">
-      <c r="A10" s="23">
+      <c r="A10" s="30">
         <v>104</v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="29" t="str">
         <v>别西卜
 第四道菜是炭烤摩洛克牛排。
 主角6
@@ -1402,16 +1402,16 @@
 主角7
 烤牛排的配菜在花园里应该是常见的。</v>
       </c>
-      <c r="C10" s="24" t="str">
+      <c r="C10" s="29" t="str">
         <v>第三道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="11">
-      <c r="A11" s="23">
+      <c r="A11" s="30">
         <v>105</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="29" t="str">
         <v>别西卜
 第五道菜是烤贝尔芬格奶酪。
 主角6
@@ -1419,16 +1419,16 @@
 主角7
 奶酪的话，或许会和蜂蜜一类的菜品更搭。</v>
       </c>
-      <c r="C11" s="24" t="str">
+      <c r="C11" s="29" t="str">
         <v>第四道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="12">
-      <c r="A12" s="23">
+      <c r="A12" s="30">
         <v>106</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="29" t="str">
         <v>别西卜
 第六道菜是撒旦石榴布丁。
 主角6
@@ -1436,16 +1436,16 @@
 主角7
 唔，石榴似乎是在塔尔塔洛斯。</v>
       </c>
-      <c r="C12" s="24" t="str">
+      <c r="C12" s="29" t="str">
         <v>第五道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="13">
-      <c r="A13" s="23">
+      <c r="A13" s="30">
         <v>107</v>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="29" t="str">
         <v>别西卜
 第七道菜是玛门的眼泪。
 主角6
@@ -1453,16 +1453,16 @@
 主角7
 这道菜应该是酒，或许寻找一些香料能够调配出美妙的味道。</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="29" t="str">
         <v>第六道菜评分通过后显示
 对话结束后跳转对话920</v>
       </c>
     </row>
     <row customHeight="true" ht="212" r="14">
-      <c r="A14" s="15">
+      <c r="A14" s="23">
         <v>210</v>
       </c>
-      <c r="B14" s="14" t="str">
+      <c r="B14" s="22" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。
 Null
@@ -1478,7 +1478,7 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="22" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：2；3；4；5；6；7
@@ -1486,10 +1486,10 @@
       </c>
     </row>
     <row customHeight="true" ht="214" r="15">
-      <c r="A15" s="15">
+      <c r="A15" s="23">
         <v>220</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="22" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。
 Null
@@ -1505,17 +1505,17 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="22" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：1</v>
       </c>
     </row>
     <row customHeight="true" ht="211" r="16">
-      <c r="A16" s="15">
+      <c r="A16" s="23">
         <v>230</v>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="22" t="str">
         <v>Null
 到处都是火焰、火焰、火焰。
 Null
@@ -1531,7 +1531,7 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C16" s="14" t="str">
+      <c r="C16" s="22" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：3
@@ -1539,10 +1539,10 @@
       </c>
     </row>
     <row customHeight="true" ht="175" r="17">
-      <c r="A17" s="15">
+      <c r="A17" s="23">
         <v>211</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="22" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1556,15 +1556,15 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="134" r="18">
-      <c r="A18" s="15">
+      <c r="A18" s="23">
         <v>212</v>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="22" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1574,15 +1574,15 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="177" r="19">
-      <c r="A19" s="15">
+      <c r="A19" s="23">
         <v>221</v>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="22" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1596,15 +1596,15 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C19" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="137" r="20">
-      <c r="A20" s="15">
+      <c r="A20" s="23">
         <v>222</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="22" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1614,15 +1614,15 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C20" s="14" t="str">
+      <c r="C20" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="21">
-      <c r="A21" s="15">
+      <c r="A21" s="23">
         <v>223</v>
       </c>
-      <c r="B21" s="14" t="str">
+      <c r="B21" s="22" t="str">
         <v>大饼
 想要获得刻尔柏的龙肝，你需要特殊的工具。
 大饼
@@ -1630,15 +1630,15 @@
 大饼
 另外，在每个地点多多探索，也许会发现可能用到的东西。</v>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C21" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="186" r="22">
-      <c r="A22" s="15">
+      <c r="A22" s="23">
         <v>231</v>
       </c>
-      <c r="B22" s="14" t="str">
+      <c r="B22" s="22" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1652,15 +1652,15 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C22" s="14" t="str">
+      <c r="C22" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="133" r="23">
-      <c r="A23" s="15">
+      <c r="A23" s="23">
         <v>232</v>
       </c>
-      <c r="B23" s="14" t="str">
+      <c r="B23" s="22" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1670,28 +1670,28 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C23" s="14" t="str">
+      <c r="C23" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="71" r="24">
-      <c r="A24" s="15">
+      <c r="A24" s="23">
         <v>234</v>
       </c>
-      <c r="B24" s="14" t="str">
+      <c r="B24" s="22" t="str">
         <v>大饼
 我的混沌三叉戟可以帮上你的忙。</v>
       </c>
-      <c r="C24" s="14" t="str">
+      <c r="C24" s="22" t="str">
         <v>塔尔塔洛斯
 玩家道具栏中会出现混沌三叉戟道具</v>
       </c>
     </row>
     <row customHeight="true" ht="246" r="25">
-      <c r="A25" s="15">
+      <c r="A25" s="23">
         <v>2991</v>
       </c>
-      <c r="B25" s="14" t="str">
+      <c r="B25" s="22" t="str">
         <v>阿斯摩太
 我闻到了浓郁的人肉香气……如此新鲜、柔嫩、美味。
 阿斯摩太
@@ -1707,31 +1707,31 @@
 阿斯摩太
 我被困于炼狱中已经太久，自然无法违抗别西卜大人的命令。但是如何得到你所需要的食材，并不取决于我，而取决于你作为厨师的手法。</v>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C25" s="22" t="str">
         <v>塔尔塔洛斯
 出现条件：
 对应轮次：1</v>
       </c>
     </row>
     <row customHeight="true" ht="71" r="26">
-      <c r="A26" s="15">
+      <c r="A26" s="23">
         <v>2992</v>
       </c>
-      <c r="B26" s="14" t="str">
+      <c r="B26" s="22" t="str">
         <v>阿斯摩太
 ......</v>
       </c>
-      <c r="C26" s="14" t="str">
+      <c r="C26" s="22" t="str">
         <v>塔尔塔洛斯
 出现条件：
 对应轮次：2；3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="187" r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="12">
         <v>310</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="11" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1745,7 +1745,7 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="11" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：1；2；3；5；6；7
@@ -1753,10 +1753,10 @@
       </c>
     </row>
     <row customHeight="true" ht="198" r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="12">
         <v>320</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="11" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1770,7 +1770,7 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="11" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：4
@@ -1778,10 +1778,10 @@
       </c>
     </row>
     <row customHeight="true" ht="195" r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="12">
         <v>330</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="11" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1795,7 +1795,7 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="11" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：1
@@ -1803,10 +1803,10 @@
       </c>
     </row>
     <row customHeight="true" ht="207" r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="12">
         <v>311</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B30" s="11" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1820,15 +1820,15 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="11" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="99" r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="12">
         <v>312</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="11" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1836,15 +1836,15 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C31" s="7" t="str">
+      <c r="C31" s="11" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="217" r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="12">
         <v>321</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="B32" s="11" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1858,15 +1858,15 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C32" s="7" t="str">
+      <c r="C32" s="11" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="90" r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="12">
         <v>322</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="B33" s="11" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1874,15 +1874,15 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C33" s="7" t="str">
+      <c r="C33" s="11" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="114" r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="12">
         <v>323</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="11" t="str">
         <v>三叶虫
 摩洛克虽然被禁锢在方寸之地，但力量依然不可小觑。
 三叶虫
@@ -1890,15 +1890,15 @@
 三叶虫
 去遗忘之地寻找一个名叫蓝七的混沌亡灵，她将帮助你使摩洛克陷入沉睡。</v>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C34" s="11" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="200" r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="12">
         <v>331</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="B35" s="11" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1912,15 +1912,15 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C35" s="7" t="str">
+      <c r="C35" s="11" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="91" r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="12">
         <v>332</v>
       </c>
-      <c r="B36" s="7" t="str">
+      <c r="B36" s="11" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1928,28 +1928,28 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C36" s="7" t="str">
+      <c r="C36" s="11" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="52" r="37">
-      <c r="A37" s="6">
+      <c r="A37" s="12">
         <v>334</v>
       </c>
-      <c r="B37" s="7" t="str">
+      <c r="B37" s="11" t="str">
         <v>三叶虫
 这是我的地狱弯刀，几乎可以砍下世界上所有生物的脖颈。</v>
       </c>
-      <c r="C37" s="7" t="str">
+      <c r="C37" s="11" t="str">
         <v>极乐之野
 玩家道具栏里会获取道具地狱弯刀</v>
       </c>
     </row>
     <row customHeight="true" ht="197" r="38">
-      <c r="A38" s="6">
+      <c r="A38" s="12">
         <v>3991</v>
       </c>
-      <c r="B38" s="7" t="str">
+      <c r="B38" s="11" t="str">
         <v>Null 
 摩洛克被关在一处画满蓝色符文的阵法里，无形的光芒笼罩着他。他的牛头发出低沉的吼叫，胸口的熔炉燃烧着腾腾火焰。
 主角1
@@ -1963,29 +1963,29 @@
 Null
 他重新吼叫起来，完全忽视了站在外面的人类。</v>
       </c>
-      <c r="C38" s="7" t="str">
+      <c r="C38" s="11" t="str">
         <v>极乐之野
 出现轮次：1；2；3；4</v>
       </c>
     </row>
     <row customHeight="true" ht="56" r="39">
-      <c r="A39" s="6">
+      <c r="A39" s="12">
         <v>3992</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="11" t="str">
         <v>摩洛克
 ......</v>
       </c>
-      <c r="C39" s="7" t="str">
+      <c r="C39" s="11" t="str">
         <v>极乐之野
 出现轮次：5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="316" r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="9">
         <v>410</v>
       </c>
-      <c r="B40" s="1" t="str">
+      <c r="B40" s="10" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。
 Null
@@ -2007,17 +2007,17 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C40" s="10" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：1；2；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="326" r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="9">
         <v>420</v>
       </c>
-      <c r="B41" s="1" t="str">
+      <c r="B41" s="10" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。
 Null
@@ -2039,17 +2039,17 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C41" s="10" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：3</v>
       </c>
     </row>
     <row customHeight="true" ht="176" r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="9">
         <v>411</v>
       </c>
-      <c r="B42" s="1" t="str">
+      <c r="B42" s="10" t="str">
         <v>因诺
 利维坦是原始混沌的化身，是海洋的统治者。
 因诺
@@ -2063,15 +2063,15 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C42" s="10" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="93" r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="9">
         <v>412</v>
       </c>
-      <c r="B43" s="1" t="str">
+      <c r="B43" s="10" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -2080,15 +2080,15 @@
 411|412|999
 </v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C43" s="10" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="171" r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="9">
         <v>421</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="10" t="str">
         <v>因诺
 利维坦是原始混沌的化身，是海洋的统治者。
 因诺
@@ -2102,15 +2102,15 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C44" s="10" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="94" r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="9">
         <v>422</v>
       </c>
-      <c r="B45" s="1" t="str">
+      <c r="B45" s="10" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -2118,30 +2118,30 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C45" s="10" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="87" r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="9">
         <v>423</v>
       </c>
-      <c r="B46" s="1" t="str">
+      <c r="B46" s="10" t="str">
         <v>因诺
 与利维坦的简单性格相对照的，是他坚硬无比的皮肤。
 因诺
 别西卜大人需要的食材必须特殊的工具才能获得，你需要去塔尔塔洛斯寻找那位地狱守卫，取得她的帮助。
 </v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C46" s="10" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="295" r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="9">
         <v>4991</v>
       </c>
-      <c r="B47" s="1" t="str">
+      <c r="B47" s="10" t="str">
         <v>Null 
 一只巨大的鲸鱼出现在你面前。它的表面没有眼睛，身体上覆盖着厚厚的青苔。它不安的背鳍轻轻晃动着，黏稠厚重的河水慢慢浮现波纹。
 利维坦
@@ -2163,31 +2163,31 @@
 主角12
 虽然利维坦的个性温和，但毕竟是恶魔，他并没有比别人犯的罪恶更少。</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C47" s="10" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：1；2；3</v>
       </c>
     </row>
     <row customHeight="true" ht="85" r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="9">
         <v>4992</v>
       </c>
-      <c r="B48" s="1" t="str">
+      <c r="B48" s="10" t="str">
         <v>利维坦
 ......</v>
       </c>
-      <c r="C48" s="1" t="str">
+      <c r="C48" s="10" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="349" r="49">
-      <c r="A49" s="32">
+      <c r="A49" s="1">
         <v>510</v>
       </c>
-      <c r="B49" s="33" t="str">
+      <c r="B49" s="2" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2213,17 +2213,17 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C49" s="35" t="str">
+      <c r="C49" s="8" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：1；3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="369" r="50">
-      <c r="A50" s="32">
+      <c r="A50" s="1">
         <v>520</v>
       </c>
-      <c r="B50" s="33" t="str">
+      <c r="B50" s="2" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2249,17 +2249,17 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C50" s="35" t="str">
+      <c r="C50" s="8" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：2</v>
       </c>
     </row>
     <row customHeight="true" ht="365" r="51">
-      <c r="A51" s="32">
+      <c r="A51" s="1">
         <v>530</v>
       </c>
-      <c r="B51" s="33" t="str">
+      <c r="B51" s="2" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2285,7 +2285,7 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C51" s="35" t="str">
+      <c r="C51" s="8" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：7
@@ -2293,10 +2293,10 @@
       </c>
     </row>
     <row customHeight="true" ht="194" r="52">
-      <c r="A52" s="32">
+      <c r="A52" s="1">
         <v>511</v>
       </c>
-      <c r="B52" s="33" t="str">
+      <c r="B52" s="2" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2310,15 +2310,15 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C52" s="34" t="str">
+      <c r="C52" s="3" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="53">
-      <c r="A53" s="32">
+      <c r="A53" s="1">
         <v>512</v>
       </c>
-      <c r="B53" s="33" t="str">
+      <c r="B53" s="2" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2326,15 +2326,15 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C53" s="34" t="str">
+      <c r="C53" s="3" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="195" r="54">
-      <c r="A54" s="32">
+      <c r="A54" s="1">
         <v>521</v>
       </c>
-      <c r="B54" s="33" t="str">
+      <c r="B54" s="2" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2348,15 +2348,15 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C54" s="34" t="str">
+      <c r="C54" s="3" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="107" r="55">
-      <c r="A55" s="32">
+      <c r="A55" s="1">
         <v>522</v>
       </c>
-      <c r="B55" s="33" t="str">
+      <c r="B55" s="2" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2364,28 +2364,28 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C55" s="34" t="str">
+      <c r="C55" s="3" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="32">
+      <c r="A56" s="1">
         <v>523</v>
       </c>
-      <c r="B56" s="33" t="str">
+      <c r="B56" s="2" t="str">
         <v>摸摸
 在巴力处获取的食材需要特殊的容器才能储存，你可以在喀戎河畔找到你所需要的物品。</v>
       </c>
-      <c r="C56" s="36" t="str">
+      <c r="C56" s="7" t="str">
         <v>水仙花园
 然后可以在河流出点击拾取地上的物品</v>
       </c>
     </row>
     <row customHeight="true" ht="198" r="57">
-      <c r="A57" s="32">
+      <c r="A57" s="1">
         <v>531</v>
       </c>
-      <c r="B57" s="33" t="str">
+      <c r="B57" s="2" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2399,15 +2399,15 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C57" s="34" t="str">
+      <c r="C57" s="3" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="101" r="58">
-      <c r="A58" s="32">
+      <c r="A58" s="1">
         <v>532</v>
       </c>
-      <c r="B58" s="33" t="str">
+      <c r="B58" s="2" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2415,30 +2415,30 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C58" s="34" t="str">
+      <c r="C58" s="3" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="32">
+      <c r="A59" s="1">
         <v>534</v>
       </c>
-      <c r="B59" s="33" t="str">
+      <c r="B59" s="2" t="str">
         <v>摸摸
 噢……你指的是这把金十字镐。用这个对付玛门再合适不过。</v>
       </c>
-      <c r="C59" s="34" t="str">
+      <c r="C59" s="3" t="str">
         <v>水仙花园
 玩家物品栏增加金十字镐</v>
       </c>
     </row>
     <row customHeight="true" ht="316" r="60">
-      <c r="A60" s="32">
+      <c r="A60" s="1">
         <v>5991</v>
       </c>
-      <c r="B60" s="33" t="str">
+      <c r="B60" s="2" t="str">
         <v>巴力
-你好，戴着白色厨师帽的女孩。
+你好，系着红色围裙的女孩。
 主角2
 你好，多长了两个蛤蟆头和猫脑袋的恶魔。
 主角3
@@ -2456,33 +2456,33 @@
 巴力
 这里生机勃勃，令我回忆起当年在古迦南，人们向我祈求风调雨顺、年岁丰饶的日子。
 巴力
-至于他所想取的食材……这些伤口对地狱的恶魔不算什么。动手吧，戴厨师帽的女孩。</v>
-      </c>
-      <c r="C60" s="34" t="str">
+至于他所想取的食材……这些伤口对地狱的恶魔不算什么。动手吧，系着红色围裙的女孩。</v>
+      </c>
+      <c r="C60" s="3" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：1；2</v>
       </c>
     </row>
     <row customHeight="true" ht="76" r="61">
-      <c r="A61" s="32">
+      <c r="A61" s="1">
         <v>5992</v>
       </c>
-      <c r="B61" s="33" t="str">
+      <c r="B61" s="2" t="str">
         <v>巴力
 ......</v>
       </c>
-      <c r="C61" s="35" t="str">
+      <c r="C61" s="8" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="306" r="62">
-      <c r="A62" s="30">
+      <c r="A62" s="31">
         <v>610</v>
       </c>
-      <c r="B62" s="31" t="str">
+      <c r="B62" s="32" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。
 Null
@@ -2504,17 +2504,17 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C62" s="29" t="str">
+      <c r="C62" s="33" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：1；2；3；4；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="306" r="63">
-      <c r="A63" s="30">
+      <c r="A63" s="31">
         <v>620</v>
       </c>
-      <c r="B63" s="31" t="str">
+      <c r="B63" s="32" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。
 Null
@@ -2536,17 +2536,17 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C63" s="29" t="str">
+      <c r="C63" s="33" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：5</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="30">
+      <c r="A64" s="31">
         <v>611</v>
       </c>
-      <c r="B64" s="31" t="str">
+      <c r="B64" s="32" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
 牙牙乐
@@ -2562,15 +2562,15 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C64" s="29" t="str">
+      <c r="C64" s="33" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="92" r="65">
-      <c r="A65" s="30">
+      <c r="A65" s="31">
         <v>612</v>
       </c>
-      <c r="B65" s="31" t="str">
+      <c r="B65" s="32" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
@@ -2578,15 +2578,15 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C65" s="29" t="str">
+      <c r="C65" s="33" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="195" r="66">
-      <c r="A66" s="30">
+      <c r="A66" s="31">
         <v>621</v>
       </c>
-      <c r="B66" s="31" t="str">
+      <c r="B66" s="32" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
 牙牙乐
@@ -2602,15 +2602,15 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C66" s="29" t="str">
+      <c r="C66" s="33" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="95" r="67">
-      <c r="A67" s="30">
+      <c r="A67" s="31">
         <v>622</v>
       </c>
-      <c r="B67" s="31" t="str">
+      <c r="B67" s="32" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
@@ -2618,29 +2618,29 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C67" s="29" t="str">
+      <c r="C67" s="33" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="76" r="68">
-      <c r="A68" s="30">
+      <c r="A68" s="31">
         <v>623</v>
       </c>
-      <c r="B68" s="31" t="str">
+      <c r="B68" s="32" t="str">
         <v>牙牙乐
 没有人知道这次的祭品究竟是不是人类的排泄物。
 牙牙乐
 以防万一，我想你可以去冥府侧殿的侍女处找到合适的容器来盛装。</v>
       </c>
-      <c r="C68" s="29" t="str">
+      <c r="C68" s="33" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="30">
+      <c r="A69" s="31">
         <v>6991</v>
       </c>
-      <c r="B69" s="31" t="str">
+      <c r="B69" s="32" t="str">
         <v>贝尔芬格
 ……
 主角1
@@ -2658,31 +2658,31 @@
 主角12
 看来我自己去获取祭品就好。</v>
       </c>
-      <c r="C69" s="29" t="str">
+      <c r="C69" s="33" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：1；2；3；4；5</v>
       </c>
     </row>
     <row customHeight="true" ht="78" r="70">
-      <c r="A70" s="30">
+      <c r="A70" s="31">
         <v>6992</v>
       </c>
-      <c r="B70" s="31" t="str">
+      <c r="B70" s="32" t="str">
         <v>贝尔芬格
 ......</v>
       </c>
-      <c r="C70" s="29" t="str">
+      <c r="C70" s="33" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：6；7</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="20">
+      <c r="A71" s="26">
         <v>710</v>
       </c>
-      <c r="B71" s="25" t="str">
+      <c r="B71" s="28" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2701,17 +2701,17 @@
 711|712|999
 </v>
       </c>
-      <c r="C71" s="22" t="str">
+      <c r="C71" s="25" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：1；2；3；4；5；6</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="20">
+      <c r="A72" s="26">
         <v>720</v>
       </c>
-      <c r="B72" s="25" t="str">
+      <c r="B72" s="28" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2729,17 +2729,17 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C72" s="22" t="str">
+      <c r="C72" s="25" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：7</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="20">
+      <c r="A73" s="26">
         <v>730</v>
       </c>
-      <c r="B73" s="25" t="str">
+      <c r="B73" s="28" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2757,7 +2757,7 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C73" s="22" t="str">
+      <c r="C73" s="25" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：5
@@ -2765,10 +2765,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="20">
+      <c r="A74" s="26">
         <v>711</v>
       </c>
-      <c r="B74" s="25" t="str">
+      <c r="B74" s="28" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2780,15 +2780,15 @@
 Options 
 711|712|999</v>
       </c>
-      <c r="C74" s="22" t="str">
+      <c r="C74" s="25" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="20">
+      <c r="A75" s="26">
         <v>712</v>
       </c>
-      <c r="B75" s="21" t="str">
+      <c r="B75" s="27" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2796,15 +2796,15 @@
 Options 
 711|712|999</v>
       </c>
-      <c r="C75" s="22" t="str">
+      <c r="C75" s="25" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="160" r="76">
-      <c r="A76" s="20">
+      <c r="A76" s="26">
         <v>721</v>
       </c>
-      <c r="B76" s="25" t="str">
+      <c r="B76" s="28" t="str">
         <v>小小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2816,15 +2816,15 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C76" s="22" t="str">
+      <c r="C76" s="25" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="85" r="77">
-      <c r="A77" s="20">
+      <c r="A77" s="26">
         <v>722</v>
       </c>
-      <c r="B77" s="21" t="str">
+      <c r="B77" s="27" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2832,29 +2832,29 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C77" s="22" t="str">
+      <c r="C77" s="25" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="20">
+      <c r="A78" s="26">
         <v>723</v>
       </c>
-      <c r="B78" s="25" t="str">
+      <c r="B78" s="28" t="str">
         <v>小葵
 此刻他正在沉睡。即使在睡梦中，玛门也要与黄金同眠。
 小葵
 我想你需要去找水仙花园的冥府园丁，借助某个工具才能将他从黄金堆里找出。</v>
       </c>
-      <c r="C78" s="22" t="str">
+      <c r="C78" s="25" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="161" r="79">
-      <c r="A79" s="20">
+      <c r="A79" s="26">
         <v>731</v>
       </c>
-      <c r="B79" s="25" t="str">
+      <c r="B79" s="28" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2866,15 +2866,15 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C79" s="22" t="str">
+      <c r="C79" s="25" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="95" r="80">
-      <c r="A80" s="20">
+      <c r="A80" s="26">
         <v>732</v>
       </c>
-      <c r="B80" s="21" t="str">
+      <c r="B80" s="27" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2882,28 +2882,28 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C80" s="22" t="str">
+      <c r="C80" s="25" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="20">
+      <c r="A81" s="26">
         <v>734</v>
       </c>
-      <c r="B81" s="21" t="str">
+      <c r="B81" s="27" t="str">
         <v>小葵
 啊！我想你需要的是这个狮鹫夜壶。</v>
       </c>
-      <c r="C81" s="22" t="str">
+      <c r="C81" s="25" t="str">
         <v>冥府侧殿
 玩家道具栏新增狮鹫夜壶</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="20">
+      <c r="A82" s="26">
         <v>7991</v>
       </c>
-      <c r="B82" s="21" t="str">
+      <c r="B82" s="27" t="str">
         <v>玛门
 没有一个瞬间，不会成为地狱的进口。没有一个瞬间，不会成为天堂的流水。
 玛门
@@ -2915,17 +2915,17 @@
 主角3
 人设还真是始终如一地不ooc呢……</v>
       </c>
-      <c r="C82" s="22" t="str">
+      <c r="C82" s="25" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：1；2；3；4；5；6；7</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="16">
+      <c r="A83" s="20">
         <v>810</v>
       </c>
-      <c r="B83" s="17" t="str">
+      <c r="B83" s="21" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -2947,17 +2947,17 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C83" s="18" t="str">
+      <c r="C83" s="19" t="str">
         <v>混沌之地
 出现条件
 对应轮次：1；2；3；4；5；7</v>
       </c>
     </row>
     <row customHeight="true" ht="315" r="84">
-      <c r="A84" s="16">
+      <c r="A84" s="20">
         <v>820</v>
       </c>
-      <c r="B84" s="17" t="str">
+      <c r="B84" s="21" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -2979,17 +2979,17 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C84" s="18" t="str">
+      <c r="C84" s="19" t="str">
         <v>混沌之地
 出现条件
 对应轮次：6</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="16">
+      <c r="A85" s="20">
         <v>830</v>
       </c>
-      <c r="B85" s="17" t="str">
+      <c r="B85" s="21" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -3011,7 +3011,7 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C85" s="18" t="str">
+      <c r="C85" s="19" t="str">
         <v>混沌之地
 出现条件
 对应轮次：4
@@ -3019,10 +3019,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="16">
+      <c r="A86" s="20">
         <v>811</v>
       </c>
-      <c r="B86" s="17" t="str">
+      <c r="B86" s="21" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3034,15 +3034,15 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C86" s="18" t="str">
+      <c r="C86" s="19" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="16">
+      <c r="A87" s="20">
         <v>812</v>
       </c>
-      <c r="B87" s="17" t="str">
+      <c r="B87" s="21" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3050,15 +3050,15 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C87" s="18" t="str">
+      <c r="C87" s="19" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="186" r="88">
-      <c r="A88" s="16">
+      <c r="A88" s="20">
         <v>821</v>
       </c>
-      <c r="B88" s="17" t="str">
+      <c r="B88" s="21" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3070,15 +3070,15 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C88" s="18" t="str">
+      <c r="C88" s="19" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="96" r="89">
-      <c r="A89" s="16">
+      <c r="A89" s="20">
         <v>822</v>
       </c>
-      <c r="B89" s="17" t="str">
+      <c r="B89" s="21" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3086,28 +3086,28 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C89" s="18" t="str">
+      <c r="C89" s="19" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="54" r="90">
-      <c r="A90" s="16">
+      <c r="A90" s="20">
         <v>823</v>
       </c>
-      <c r="B90" s="17" t="str">
+      <c r="B90" s="21" t="str">
         <v>蓝七
 从撒旦身上获取的食材需要特殊的容器才能储存，你可以在亡灵饮水地找到你所需要的物品。</v>
       </c>
-      <c r="C90" s="19" t="str">
+      <c r="C90" s="24" t="str">
         <v>混沌之地
 乌洛波洛斯之盘自行拾取</v>
       </c>
     </row>
     <row customHeight="true" ht="185" r="91">
-      <c r="A91" s="16">
+      <c r="A91" s="20">
         <v>831</v>
       </c>
-      <c r="B91" s="17" t="str">
+      <c r="B91" s="21" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3119,15 +3119,15 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C91" s="18" t="str">
+      <c r="C91" s="19" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="105" r="92">
-      <c r="A92" s="16">
+      <c r="A92" s="20">
         <v>832</v>
       </c>
-      <c r="B92" s="17" t="str">
+      <c r="B92" s="21" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3135,28 +3135,28 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C92" s="18" t="str">
+      <c r="C92" s="19" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="16">
+      <c r="A93" s="20">
         <v>834</v>
       </c>
-      <c r="B93" s="17" t="str">
+      <c r="B93" s="21" t="str">
         <v>蓝七
 啊！我想你需要厄洛斯之香。即使是再强大的恶魔，它也能使其陷入沉睡。</v>
       </c>
-      <c r="C93" s="18" t="str">
+      <c r="C93" s="19" t="str">
         <v>混沌之地
 玩家道具栏增加厄洛斯之香</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="16">
+      <c r="A94" s="20">
         <v>8991</v>
       </c>
-      <c r="B94" s="17" t="str">
+      <c r="B94" s="21" t="str">
         <v>撒旦
 我一直在看着你，女孩。
 撒旦
@@ -3170,43 +3170,43 @@
 撒旦
 既然别西卜想要，我就不为难你了。不必怜惜我，我不会感到疼痛……</v>
       </c>
-      <c r="C94" s="18" t="str">
+      <c r="C94" s="19" t="str">
         <v>混沌之地
 出现条件
 对应轮次：1；2；3；4；5；6</v>
       </c>
     </row>
     <row customHeight="true" ht="68" r="95">
-      <c r="A95" s="16">
+      <c r="A95" s="20">
         <v>8992</v>
       </c>
-      <c r="B95" s="17" t="str">
+      <c r="B95" s="21" t="str">
         <v>撒旦
 ......</v>
       </c>
-      <c r="C95" s="18" t="str">
+      <c r="C95" s="19" t="str">
         <v>混沌之地
 出现条件
 对应轮次：7</v>
       </c>
     </row>
     <row customHeight="true" ht="81" r="96">
-      <c r="A96" s="10">
+      <c r="A96" s="14">
         <v>910</v>
       </c>
-      <c r="B96" s="8" t="str">
+      <c r="B96" s="15" t="str">
         <v>Narrator
 你做出了连恶魔都难以下咽的食物……
 Narrator
 别西卜非常恼怒，将你投喂给了利维坦</v>
       </c>
-      <c r="C96" s="11"/>
+      <c r="C96" s="16"/>
     </row>
     <row r="97">
-      <c r="A97" s="10">
+      <c r="A97" s="14">
         <v>920</v>
       </c>
-      <c r="B97" s="8" t="str">
+      <c r="B97" s="15" t="str">
         <v>因诺
 不知道现在告诉你这些会不会太晚了……
 因诺
@@ -3218,17 +3218,17 @@
 Options 
 921|922</v>
       </c>
-      <c r="C97" s="9" t="str">
+      <c r="C97" s="18" t="str">
         <v>第六道菜结束后（别西卜发布任务后）弹出的对话
 选项921-进入逃离失败结局部分
 选项922-进入第七轮次的白日地图</v>
       </c>
     </row>
     <row customHeight="true" ht="735" r="98">
-      <c r="A98" s="10">
+      <c r="A98" s="14">
         <v>930</v>
       </c>
-      <c r="B98" s="8" t="str">
+      <c r="B98" s="15" t="str">
         <v>Narrator
 你以为你成功了吗？
 Narrator
@@ -3280,17 +3280,17 @@
 Null
 亲爱的，我们游戏主界面见。</v>
       </c>
-      <c r="C98" s="11" t="str">
+      <c r="C98" s="16" t="str">
         <v>真结局文本内容
 做完第七道菜并且评分通过后触发
 </v>
       </c>
     </row>
     <row customHeight="true" ht="148" r="99">
-      <c r="A99" s="10">
+      <c r="A99" s="14">
         <v>921</v>
       </c>
-      <c r="B99" s="8" t="str">
+      <c r="B99" s="15" t="str">
         <v>Narrator
 多么天真可爱、盲目轻信的小女孩……
 Narrator
@@ -3302,10 +3302,10 @@
 Narrator
 在更高的维度，我们始终掌控着你的命运……</v>
       </c>
-      <c r="C99" s="11"/>
+      <c r="C99" s="16"/>
     </row>
     <row r="100">
-      <c r="A100" s="12">
+      <c r="A100" s="17">
         <v>922</v>
       </c>
       <c r="B100" s="13" t="str">
@@ -3314,827 +3314,827 @@
 因诺
 或许这就是命运吧。</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="4"/>
+      <c r="A101" s="5"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="4"/>
+      <c r="A102" s="5"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="4"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="4"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="4"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="4"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="4"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115">
-      <c r="A115" s="4"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="4"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="4"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118">
-      <c r="A118" s="4"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="3"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="4"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="4"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="4"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140">
-      <c r="A140" s="4"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="4"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142">
-      <c r="A142" s="4"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="4"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="4"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="4"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="4"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="5"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="4"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="4"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="4"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="4"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="4"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="5"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="4"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="4"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="5"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="4"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="4"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="3"/>
+      <c r="A157" s="5"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="4"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="3"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160">
-      <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="3"/>
+      <c r="A160" s="5"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="4"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="3"/>
+      <c r="A161" s="5"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="5"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163">
-      <c r="A163" s="4"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="3"/>
+      <c r="A163" s="5"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="5"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="4"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="3"/>
+      <c r="A165" s="5"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="4"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="3"/>
+      <c r="A166" s="5"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="4"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="3"/>
+      <c r="A167" s="5"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="4"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="3"/>
+      <c r="A168" s="5"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="4"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="3"/>
+      <c r="A169" s="5"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="4"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="3"/>
+      <c r="A170" s="5"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="4"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="3"/>
+      <c r="A171" s="5"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="4"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="5"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="4"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="5"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="4"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="3"/>
+      <c r="A174" s="5"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="4"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="3"/>
+      <c r="A175" s="5"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="4"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="5"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="4"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="3"/>
+      <c r="A177" s="5"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="4"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="5"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="4"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="3"/>
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="4"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="3"/>
+      <c r="A180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="4"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="3"/>
+      <c r="A181" s="5"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="4"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="3"/>
+      <c r="A182" s="5"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="4"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="3"/>
+      <c r="A183" s="5"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="4"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="3"/>
+      <c r="A184" s="5"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="4"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="3"/>
+      <c r="A185" s="5"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="4"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="3"/>
+      <c r="A186" s="5"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="4"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="3"/>
+      <c r="A187" s="5"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="4"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="3"/>
+      <c r="A188" s="5"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="4"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="3"/>
+      <c r="A189" s="5"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="4"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="5"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="4"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="3"/>
+      <c r="A191" s="5"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="4"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="3"/>
+      <c r="A192" s="5"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="4"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="3"/>
+      <c r="A193" s="5"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="4"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="3"/>
+      <c r="A194" s="5"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="4"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="3"/>
+      <c r="A195" s="5"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="4"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="3"/>
+      <c r="A196" s="5"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="4"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="3"/>
+      <c r="A197" s="5"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="4"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="3"/>
+      <c r="A198" s="5"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="4"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="4"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="5"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="4"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="3"/>
+      <c r="A201" s="5"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="4"/>
     </row>
     <row r="202">
-      <c r="A202" s="4"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="3"/>
+      <c r="A202" s="5"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="4"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="3"/>
+      <c r="A203" s="5"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="4"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="3"/>
+      <c r="A204" s="5"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="4"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="3"/>
+      <c r="A205" s="5"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="4"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="3"/>
+      <c r="A206" s="5"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="4"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="3"/>
+      <c r="A207" s="5"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="4"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="3"/>
+      <c r="A208" s="5"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="4"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="3"/>
+      <c r="A209" s="5"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="4"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="3"/>
+      <c r="A210" s="5"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="4"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="3"/>
+      <c r="A211" s="5"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="4"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="3"/>
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="4"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="3"/>
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="4"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="3"/>
+      <c r="A214" s="5"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="4"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="3"/>
+      <c r="A215" s="5"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="4"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="3"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="4"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="3"/>
+      <c r="A217" s="5"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="4"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="3"/>
+      <c r="A218" s="5"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="4"/>
     </row>
     <row r="219">
-      <c r="A219" s="4"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="3"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="4"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="3"/>
+      <c r="A220" s="5"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="4"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="3"/>
+      <c r="A221" s="5"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="4"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="3"/>
+      <c r="A222" s="5"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="4"/>
     </row>
     <row r="223">
-      <c r="A223" s="4"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="3"/>
+      <c r="A223" s="5"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="4"/>
     </row>
     <row r="224">
-      <c r="A224" s="4"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="3"/>
+      <c r="A224" s="5"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="4"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="3"/>
+      <c r="A225" s="5"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="4"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="3"/>
+      <c r="A226" s="5"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="4"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="3"/>
+      <c r="A227" s="5"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="4"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="3"/>
+      <c r="A228" s="5"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="4"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="3"/>
+      <c r="A229" s="5"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="4"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="3"/>
+      <c r="A230" s="5"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="4"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="3"/>
+      <c r="A231" s="5"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="4"/>
     </row>
     <row r="232">
-      <c r="A232" s="4"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="3"/>
+      <c r="A232" s="5"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="4"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="3"/>
+      <c r="A233" s="5"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="4"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="3"/>
+      <c r="A234" s="5"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="4"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="3"/>
+      <c r="A235" s="5"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="4"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="3"/>
+      <c r="A236" s="5"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="4"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="3"/>
+      <c r="A237" s="5"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="4"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="3"/>
+      <c r="A238" s="5"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="4"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="3"/>
+      <c r="A239" s="5"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="4"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="3"/>
+      <c r="A240" s="5"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="4"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="3"/>
+      <c r="A241" s="5"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="4"/>
     </row>
     <row r="242">
-      <c r="A242" s="4"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="3"/>
+      <c r="A242" s="5"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="4"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="3"/>
+      <c r="A243" s="5"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="4"/>
     </row>
     <row r="244">
-      <c r="A244" s="4"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="3"/>
+      <c r="A244" s="5"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="4"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="3"/>
+      <c r="A245" s="5"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="4"/>
-      <c r="B246" s="5"/>
-      <c r="C246" s="3"/>
+      <c r="A246" s="5"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="4"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="3"/>
+      <c r="A247" s="5"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="4"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="3"/>
+      <c r="A248" s="5"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="4"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="3"/>
+      <c r="A249" s="5"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="4"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="3"/>
+      <c r="A250" s="5"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="4"/>
     </row>
     <row r="251">
-      <c r="A251" s="4"/>
-      <c r="B251" s="5"/>
-      <c r="C251" s="3"/>
+      <c r="A251" s="5"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="4"/>
     </row>
     <row r="252">
-      <c r="A252" s="4"/>
-      <c r="B252" s="5"/>
-      <c r="C252" s="3"/>
+      <c r="A252" s="5"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="4"/>
-      <c r="B253" s="5"/>
-      <c r="C253" s="3"/>
+      <c r="A253" s="5"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="4"/>
-      <c r="B254" s="5"/>
-      <c r="C254" s="3"/>
+      <c r="A254" s="5"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="4"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="3"/>
+      <c r="A255" s="5"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="4"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="3"/>
+      <c r="A256" s="5"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="4"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="3"/>
+      <c r="A257" s="5"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="4"/>
-      <c r="B258" s="5"/>
-      <c r="C258" s="3"/>
+      <c r="A258" s="5"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="4"/>
-      <c r="B259" s="5"/>
-      <c r="C259" s="3"/>
+      <c r="A259" s="5"/>
+      <c r="B259" s="6"/>
+      <c r="C259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="4"/>
-      <c r="B260" s="5"/>
-      <c r="C260" s="3"/>
+      <c r="A260" s="5"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="4"/>
-      <c r="B261" s="5"/>
-      <c r="C261" s="3"/>
+      <c r="A261" s="5"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="4"/>
     </row>
     <row r="262">
-      <c r="A262" s="4"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="3"/>
+      <c r="A262" s="5"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="4"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="3"/>
+      <c r="A263" s="5"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="4"/>
-      <c r="B264" s="5"/>
-      <c r="C264" s="3"/>
+      <c r="A264" s="5"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="4"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4157,663 +4157,663 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="34" t="str">
         <v>OptionId</v>
       </c>
-      <c r="B1" s="26" t="str">
+      <c r="B1" s="34" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="34" t="str">
         <v>NextDialogueId</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="4" t="str">
         <v>GetItemId</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="str">
+      <c r="A2" s="34" t="str">
         <v>和Dialogue表里面的Opetions对应</v>
       </c>
-      <c r="B2" s="26" t="str">
+      <c r="B2" s="34" t="str">
         <v>选项文字内容</v>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="34" t="str">
         <v>要触发的对话ID
 0表示会话结束</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="11">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="11" t="str">
         <v>我可以在哪些地方获取食材？</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="11">
         <v>111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="11">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="11" t="str">
         <v>烹饪的流程是怎样的？</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>112</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="11">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="11" t="str">
         <v>没什么要问的了</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>113</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22">
+      <c r="A6" s="25">
         <v>211</v>
       </c>
-      <c r="B6" s="39" t="str">
+      <c r="B6" s="37" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="25">
         <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="22">
+      <c r="A7" s="25">
         <v>212</v>
       </c>
-      <c r="B7" s="39" t="str">
+      <c r="B7" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="25">
         <v>212</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="22">
+      <c r="A8" s="25">
         <v>221</v>
       </c>
-      <c r="B8" s="39" t="str">
+      <c r="B8" s="37" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="25">
         <v>221</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22">
+      <c r="A9" s="25">
         <v>222</v>
       </c>
-      <c r="B9" s="39" t="str">
+      <c r="B9" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="25">
         <v>222</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22">
+      <c r="A10" s="25">
         <v>223</v>
       </c>
-      <c r="B10" s="39" t="str">
+      <c r="B10" s="37" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="25">
         <v>223</v>
       </c>
     </row>
     <row customHeight="true" ht="46" r="11">
-      <c r="A11" s="22">
+      <c r="A11" s="25">
         <v>231</v>
       </c>
-      <c r="B11" s="39" t="str">
+      <c r="B11" s="37" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="25">
         <v>231</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22">
+      <c r="A12" s="25">
         <v>232</v>
       </c>
-      <c r="B12" s="39" t="str">
+      <c r="B12" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="25">
         <v>232</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22">
+      <c r="A13" s="25">
         <v>234</v>
       </c>
-      <c r="B13" s="39" t="str">
+      <c r="B13" s="37" t="str">
         <v>喀戎河畔的渡河人告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="25">
         <v>234</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="4" t="str">
         <v>混沌三叉戟</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="10">
         <v>311</v>
       </c>
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="50" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10">
         <v>311</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="10">
         <v>312</v>
       </c>
-      <c r="B15" s="44" t="str">
+      <c r="B15" s="50" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10">
         <v>312</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="10">
         <v>321</v>
       </c>
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="50" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="10">
         <v>321</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="10">
         <v>322</v>
       </c>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="50" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="10">
         <v>322</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="10">
         <v>323</v>
       </c>
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="50" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="10">
         <v>323</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="10">
         <v>331</v>
       </c>
-      <c r="B19" s="44" t="str">
+      <c r="B19" s="50" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="10">
         <v>331</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="10">
         <v>332</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="50" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="10">
         <v>332</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="21">
-      <c r="A21" s="43">
+      <c r="A21" s="49">
         <v>334</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="50" t="str">
         <v>塔尔塔洛斯的守卫告诉我你会有帮助我获得食材的道具。</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="49">
         <v>334</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D21" s="4" t="str">
         <v>地狱弯刀</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="22">
-      <c r="A22" s="40">
+      <c r="A22" s="41">
         <v>411</v>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="24" t="str">
         <v>利维坦是怎样的恶魔</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="41">
         <v>411</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="40">
+      <c r="A23" s="41">
         <v>412</v>
       </c>
-      <c r="B23" s="19" t="str">
+      <c r="B23" s="24" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="41">
         <v>412</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="40">
+      <c r="A24" s="41">
         <v>421</v>
       </c>
-      <c r="B24" s="19" t="str">
+      <c r="B24" s="24" t="str">
         <v>利维坦是怎样的恶魔</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="41">
         <v>421</v>
       </c>
     </row>
     <row customHeight="true" ht="39" r="25">
-      <c r="A25" s="40">
+      <c r="A25" s="41">
         <v>422</v>
       </c>
-      <c r="B25" s="19" t="str">
+      <c r="B25" s="24" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="41">
         <v>422</v>
       </c>
     </row>
     <row customHeight="true" ht="35" r="26">
-      <c r="A26" s="40">
+      <c r="A26" s="41">
         <v>423</v>
       </c>
-      <c r="B26" s="19" t="str">
+      <c r="B26" s="24" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="41">
         <v>423</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="29">
+      <c r="A27" s="33">
         <v>511</v>
       </c>
-      <c r="B27" s="48" t="str">
+      <c r="B27" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="33">
         <v>511</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="31">
+      <c r="A28" s="32">
         <v>512</v>
       </c>
-      <c r="B28" s="48" t="str">
+      <c r="B28" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="32">
         <v>512</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="29">
+      <c r="A29" s="33">
         <v>521</v>
       </c>
-      <c r="B29" s="48" t="str">
+      <c r="B29" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="33">
         <v>521</v>
       </c>
     </row>
     <row customHeight="true" ht="30" r="30">
-      <c r="A30" s="31">
+      <c r="A30" s="32">
         <v>522</v>
       </c>
-      <c r="B30" s="48" t="str">
+      <c r="B30" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="32">
         <v>522</v>
       </c>
     </row>
     <row customHeight="true" ht="34" r="31">
-      <c r="A31" s="31">
+      <c r="A31" s="32">
         <v>523</v>
       </c>
-      <c r="B31" s="48" t="str">
+      <c r="B31" s="38" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="32">
         <v>523</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="29">
+      <c r="A32" s="33">
         <v>531</v>
       </c>
-      <c r="B32" s="48" t="str">
+      <c r="B32" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="33">
         <v>531</v>
       </c>
     </row>
     <row customHeight="true" ht="34" r="33">
-      <c r="A33" s="31">
+      <c r="A33" s="32">
         <v>532</v>
       </c>
-      <c r="B33" s="48" t="str">
+      <c r="B33" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="32">
         <v>532</v>
       </c>
     </row>
     <row customHeight="true" ht="44" r="34">
-      <c r="A34" s="31">
+      <c r="A34" s="32">
         <v>534</v>
       </c>
-      <c r="B34" s="48" t="str">
+      <c r="B34" s="38" t="str">
         <v>冥府侧殿的侍女告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="32">
         <v>534</v>
       </c>
-      <c r="D34" s="3" t="str">
+      <c r="D34" s="4" t="str">
         <v>金十字镐</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="41">
+      <c r="A35" s="44">
         <v>611</v>
       </c>
-      <c r="B35" s="42" t="str">
+      <c r="B35" s="45" t="str">
         <v>贝尔芬格是怎样的恶魔？</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="44">
         <v>611</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="14">
+      <c r="A36" s="22">
         <v>612</v>
       </c>
-      <c r="B36" s="42" t="str">
+      <c r="B36" s="45" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="22">
         <v>612</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="37">
-      <c r="A37" s="41">
+      <c r="A37" s="44">
         <v>621</v>
       </c>
-      <c r="B37" s="42" t="str">
+      <c r="B37" s="45" t="str">
         <v>贝尔芬格是怎样的恶魔？</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="44">
         <v>621</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="38">
-      <c r="A38" s="14">
+      <c r="A38" s="22">
         <v>622</v>
       </c>
-      <c r="B38" s="42" t="str">
+      <c r="B38" s="45" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="22">
         <v>622</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="41">
+      <c r="A39" s="44">
         <v>623</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="45" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="44">
         <v>623</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="33">
+      <c r="A40" s="2">
         <v>711</v>
       </c>
-      <c r="B40" s="36" t="str">
+      <c r="B40" s="7" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="2">
         <v>711</v>
       </c>
     </row>
     <row customHeight="true" ht="40" r="41">
-      <c r="A41" s="34">
+      <c r="A41" s="3">
         <v>712</v>
       </c>
-      <c r="B41" s="36" t="str">
+      <c r="B41" s="7" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="3">
         <v>712</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="42">
-      <c r="A42" s="33">
+      <c r="A42" s="2">
         <v>721</v>
       </c>
-      <c r="B42" s="36" t="str">
+      <c r="B42" s="7" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="2">
         <v>721</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="43">
-      <c r="A43" s="34">
+      <c r="A43" s="3">
         <v>722</v>
       </c>
-      <c r="B43" s="36" t="str">
+      <c r="B43" s="7" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="3">
         <v>722</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="33">
+      <c r="A44" s="2">
         <v>723</v>
       </c>
-      <c r="B44" s="36" t="str">
+      <c r="B44" s="7" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="2">
         <v>723</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="45">
-      <c r="A45" s="33">
+      <c r="A45" s="2">
         <v>731</v>
       </c>
-      <c r="B45" s="36" t="str">
+      <c r="B45" s="7" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="2">
         <v>731</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="46">
-      <c r="A46" s="34">
+      <c r="A46" s="3">
         <v>732</v>
       </c>
-      <c r="B46" s="36" t="str">
+      <c r="B46" s="7" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="3">
         <v>732</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="34">
+      <c r="A47" s="3">
         <v>734</v>
       </c>
-      <c r="B47" s="36" t="str">
+      <c r="B47" s="7" t="str">
         <v>亡灵饮水地的神女告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="3">
         <v>734</v>
       </c>
-      <c r="D47" s="3" t="str">
+      <c r="D47" s="4" t="str">
         <v>狮鹫夜壶</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="37">
+      <c r="A48" s="48">
         <v>811</v>
       </c>
-      <c r="B48" s="38" t="str">
+      <c r="B48" s="47" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="48">
         <v>811</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="37">
+      <c r="A49" s="48">
         <v>812</v>
       </c>
-      <c r="B49" s="38" t="str">
+      <c r="B49" s="47" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="48">
         <v>812</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="50">
-      <c r="A50" s="37">
+      <c r="A50" s="48">
         <v>821</v>
       </c>
-      <c r="B50" s="38" t="str">
+      <c r="B50" s="47" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="48">
         <v>821</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="51">
-      <c r="A51" s="37">
+      <c r="A51" s="48">
         <v>822</v>
       </c>
-      <c r="B51" s="38" t="str">
+      <c r="B51" s="47" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="48">
         <v>822</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="37">
+      <c r="A52" s="48">
         <v>823</v>
       </c>
-      <c r="B52" s="38" t="str">
+      <c r="B52" s="47" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="48">
         <v>823</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="53">
-      <c r="A53" s="37">
+      <c r="A53" s="48">
         <v>831</v>
       </c>
-      <c r="B53" s="38" t="str">
+      <c r="B53" s="47" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="48">
         <v>831</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="54">
-      <c r="A54" s="37">
+      <c r="A54" s="48">
         <v>832</v>
       </c>
-      <c r="B54" s="38" t="str">
+      <c r="B54" s="47" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="48">
         <v>832</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="47">
+      <c r="A55" s="46">
         <v>834</v>
       </c>
-      <c r="B55" s="38" t="str">
+      <c r="B55" s="47" t="str">
         <v>极乐之野的守卫告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="46">
         <v>834</v>
       </c>
-      <c r="D55" s="3" t="str">
+      <c r="D55" s="4" t="str">
         <v>厄洛斯之香</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="45">
+      <c r="A56" s="43">
         <v>921</v>
       </c>
-      <c r="B56" s="46" t="str">
+      <c r="B56" s="42" t="str">
         <v>跟她走</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="42">
         <v>921</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="46">
+      <c r="A57" s="42">
         <v>922</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="42" t="str">
         <v>不跟她走</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="42">
         <v>922</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="50">
+      <c r="A59" s="39">
         <v>999</v>
       </c>
-      <c r="B59" s="49" t="str">
+      <c r="B59" s="40" t="str">
         <v>结束对话</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="40">
         <v>0</v>
       </c>
     </row>
@@ -4836,430 +4836,430 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="34" t="str">
         <v>
 </v>
       </c>
-      <c r="B1" s="26" t="str">
+      <c r="B1" s="34" t="str">
         <v>
 特殊对话的轮次</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="34" t="str">
         <v>特殊DialogueID</v>
       </c>
-      <c r="D1" s="26" t="str">
+      <c r="D1" s="34" t="str">
         <v>普通DialogueID</v>
       </c>
-      <c r="E1" s="26" t="str">
+      <c r="E1" s="34" t="str">
         <v>条件轮次</v>
       </c>
-      <c r="F1" s="26" t="str">
+      <c r="F1" s="34" t="str">
         <v>条件需要触发的DialogueId</v>
       </c>
-      <c r="G1" s="26" t="str">
+      <c r="G1" s="34" t="str">
         <v>条件达成后的DialogueId</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="4" t="str">
         <v>需要的道具</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="4" t="str">
         <v>使用道具之后获得的食材</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="2">
-      <c r="A2" s="26" t="str">
+      <c r="A2" s="34" t="str">
         <v>说明</v>
       </c>
-      <c r="B2" s="26" t="str">
+      <c r="B2" s="34" t="str">
         <v>string.
 用 “|”分割</v>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="34" t="str">
         <v>int
 在特殊轮次触发</v>
       </c>
-      <c r="D2" s="26" t="str">
+      <c r="D2" s="34" t="str">
         <v>int
 在非特殊轮次触发</v>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="34" t="str">
         <v>int
 </v>
       </c>
-      <c r="F2" s="26" t="str">
+      <c r="F2" s="34" t="str">
         <v>int</v>
       </c>
-      <c r="G2" s="26" t="str">
+      <c r="G2" s="34" t="str">
         <v>int</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="4" t="str">
         <v>string</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="str">
+      <c r="A3" s="34" t="str">
         <v>阿斯摩太</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="34">
         <v>2991</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="34">
         <v>2992</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="34">
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="34">
         <v>0</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="34">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="4" t="str">
         <v>地狱弯刀</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="4" t="str">
         <v>龙肝</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="str">
+      <c r="A4" s="34" t="str">
         <v>摩洛克</v>
       </c>
-      <c r="B4" s="26" t="str">
+      <c r="B4" s="34" t="str">
         <v>5|6|7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>3992</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="34">
         <v>3991</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="34">
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="34">
         <v>0</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="34">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="4" t="str">
         <v>厄洛斯之香</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="4" t="str">
         <v>摩洛克牛排</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="str">
+      <c r="A5" s="34" t="str">
         <v>利维坦</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="34" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="34">
         <v>4991</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="34">
         <v>4992</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="34">
         <v>0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="34">
         <v>0</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="34">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <v>混沌三叉戟</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="4" t="str">
         <v>鲸鱼肉和鱼子酱</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26" t="str">
+      <c r="A6" s="34" t="str">
         <v>巴力</v>
       </c>
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="34" t="str">
         <v>1|2</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="34">
         <v>5991</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="34">
         <v>5992</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="34">
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="34">
         <v>0</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="34">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="4" t="str">
         <v>古希腊陶罐</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" s="4" t="str">
         <v>蟾蜍原液</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="26" t="str">
+      <c r="A7" s="34" t="str">
         <v>贝尔芬格</v>
       </c>
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="34" t="str">
         <v>6|7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>6992</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="34">
         <v>6991</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="34">
         <v>0</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="34">
         <v>0</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="34">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="4" t="str">
         <v>狮鹫夜壶</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="4" t="str">
         <v>祭品奶酪</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="str">
+      <c r="A8" s="34" t="str">
         <v>玛门</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="34">
         <v>0</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="34">
         <v>0</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="34">
         <v>7991</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="34">
         <v>0</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="34">
         <v>0</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="34">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="4" t="str">
         <v>金十字镐</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" s="4" t="str">
         <v>恶魔玛门</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="str">
+      <c r="A9" s="34" t="str">
         <v>撒旦</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="34">
         <v>7</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="34">
         <v>8992</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="34">
         <v>8991</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="34">
         <v>0</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="34">
         <v>0</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="34">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="4" t="str">
         <v>乌洛波洛斯之盘</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="4" t="str">
         <v>撒旦脑花</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="str">
+      <c r="A10" s="34" t="str">
         <v>大饼</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="34">
         <v>220</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="34">
         <v>210</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="34">
         <v>3</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="34">
         <v>423</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="34">
         <v>230</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="str">
+      <c r="A11" s="34" t="str">
         <v>三叶虫</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="34">
         <v>4</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="34">
         <v>320</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="34">
         <v>310</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="34">
         <v>223</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="34">
         <v>330</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="str">
+      <c r="A12" s="34" t="str">
         <v>因诺</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="34">
         <v>3</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="34">
         <v>420</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="34">
         <v>410</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="34">
         <v>0</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="34">
         <v>0</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="str">
+      <c r="A13" s="34" t="str">
         <v>摸摸</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="34">
         <v>2</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="34">
         <v>520</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="34">
         <v>510</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="34">
         <v>7</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="34">
         <v>723</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="34">
         <v>530</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="str">
+      <c r="A14" s="34" t="str">
         <v>牙牙乐</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="34">
         <v>5</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="34">
         <v>620</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="34">
         <v>610</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="34">
         <v>0</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="34">
         <v>0</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="26" t="str">
+      <c r="A15" s="34" t="str">
         <v>小葵</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="34">
         <v>7</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="34">
         <v>720</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="34">
         <v>710</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="34">
         <v>5</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="34">
         <v>623</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="34">
         <v>730</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="str">
+      <c r="A16" s="34" t="str">
         <v>蓝七</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="34">
         <v>6</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="34">
         <v>820</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="34">
         <v>810</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="34">
         <v>4</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="34">
         <v>323</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="34">
         <v>830</v>
       </c>
     </row>
